--- a/listeProduits.xlsx
+++ b/listeProduits.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'commande du 240112'!$B$1:$H$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LISTE!$A$1:$F$183</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -81,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="381">
   <si>
     <t>Identification</t>
   </si>
@@ -149,9 +154,6 @@
     <t>O37510</t>
   </si>
   <si>
-    <t>Dutscher</t>
-  </si>
-  <si>
     <t>boite de congélation</t>
   </si>
   <si>
@@ -383,9 +385,6 @@
     <t>Methylbenzyl</t>
   </si>
   <si>
-    <t xml:space="preserve">Sigma </t>
-  </si>
-  <si>
     <t>TMRE</t>
   </si>
   <si>
@@ -434,9 +433,6 @@
     <t>1mg x6</t>
   </si>
   <si>
-    <t>fisher scientific</t>
-  </si>
-  <si>
     <t>10mLx10</t>
   </si>
   <si>
@@ -720,9 +716,6 @@
   </si>
   <si>
     <t>ATCC-CRL-10741</t>
-  </si>
-  <si>
-    <t>ATCC (LGC standards)</t>
   </si>
   <si>
     <t>MDCK</t>
@@ -1152,9 +1145,6 @@
     <t>Milieu de culture MEM Eagle avec EBSS sans L-Glutamine sans rouge de phénol avec 2,2 g/l NaHCO3</t>
   </si>
   <si>
-    <t>invitrogen - Fisher</t>
-  </si>
-  <si>
     <t>devis</t>
   </si>
   <si>
@@ -1279,6 +1269,12 @@
   </si>
   <si>
     <t>STA-347</t>
+  </si>
+  <si>
+    <t>ATCC LGC standards</t>
+  </si>
+  <si>
+    <t>Fisher Scientific</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1434,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1448,7 +1444,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1645,7 +1641,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1947,24 +1943,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="71" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3"/>
-    <col min="7" max="7" width="18.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="3"/>
+    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="3"/>
+    <col min="7" max="7" width="18.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1981,132 +1977,144 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>213</v>
+        <v>379</v>
       </c>
       <c r="F2" s="3">
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="B3" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>379</v>
       </c>
       <c r="F3" s="3">
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="B4" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>213</v>
+        <v>379</v>
       </c>
       <c r="F4" s="3">
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="F6" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B7" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B8" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D8" s="3">
         <v>50000</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F8" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B9" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C9" s="10">
         <v>50</v>
@@ -2114,17 +2122,19 @@
       <c r="D9" s="10">
         <v>353043</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>288</v>
+      <c r="E9" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F9" s="10">
         <v>146.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B10" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C10" s="10">
         <v>50</v>
@@ -2132,323 +2142,359 @@
       <c r="D10" s="10">
         <v>353046</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>288</v>
+      <c r="E10" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F10" s="10">
         <v>118.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F11" s="3">
         <v>10.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="3">
+    <row r="12" spans="1:6">
+      <c r="A12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="19">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>55260</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12">
+        <v>135.69999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="3">
         <v>500</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>33283</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E13" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="3">
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="3">
-        <v>33511</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B14" s="10" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C14" s="3">
         <v>1000</v>
       </c>
       <c r="D14" s="3">
-        <v>33508</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>33511</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F14" s="3">
-        <v>40.200000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B15" s="10" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C15" s="3">
         <v>1000</v>
       </c>
       <c r="D15" s="3">
-        <v>33297</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>85</v>
+        <v>33508</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F15" s="3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B16" s="10" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C16" s="3">
         <v>1000</v>
       </c>
       <c r="D16" s="3">
-        <v>357521</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>33297</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F16" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C17" s="3">
         <v>1000</v>
       </c>
       <c r="D17" s="3">
+        <v>357521</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="3">
         <v>357507</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E18" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="3">
-        <v>200</v>
-      </c>
-      <c r="D18" s="3">
-        <v>357543</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="3">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B19" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C19" s="3">
         <v>200</v>
       </c>
       <c r="D19" s="3">
-        <v>357551</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>85</v>
+        <v>357543</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F19" s="3">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B20" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C20" s="3">
         <v>200</v>
       </c>
       <c r="D20" s="3">
+        <v>357551</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="3">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="3">
+        <v>200</v>
+      </c>
+      <c r="D21" s="3">
         <v>357535</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E21" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="3">
+    <row r="22" spans="1:8">
+      <c r="A22" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="3">
         <v>1000</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="D22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="3">
+    <row r="23" spans="1:8">
+      <c r="A23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="3">
         <v>500</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>700000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="D23" s="1">
-        <v>13810</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>363</v>
+        <v>284</v>
       </c>
       <c r="F23" s="3">
         <v>2.9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B24" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C24" s="3">
         <v>500</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>85</v>
+        <v>216</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F24" s="3">
         <v>1.85</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B25" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D25" s="3">
         <v>50006</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>85</v>
+      <c r="E25" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F25" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B26" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D26" s="3">
         <v>50008</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>85</v>
+      <c r="E26" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F26" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B27" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D27" s="3">
         <v>50010</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>85</v>
+      <c r="E27" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F27" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:8" ht="17" customHeight="1">
+      <c r="A28" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B28" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C28" s="3">
         <v>60</v>
@@ -2456,18 +2502,20 @@
       <c r="D28" s="3">
         <v>353136</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>85</v>
+      <c r="E28" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F28" s="3">
         <v>122.8</v>
       </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:8" ht="14.5" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B29" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C29" s="3">
         <v>100</v>
@@ -2475,17 +2523,19 @@
       <c r="D29" s="3">
         <v>353109</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>85</v>
+      <c r="E29" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F29" s="3">
         <v>138.6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B30" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C30" s="3">
         <v>300</v>
@@ -2493,17 +2543,19 @@
       <c r="D30" s="3">
         <v>227270</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>85</v>
+      <c r="E30" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F30" s="3">
         <v>119.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B31" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C31" s="3">
         <v>1000</v>
@@ -2511,17 +2563,19 @@
       <c r="D31" s="3">
         <v>188271</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>85</v>
+      <c r="E31" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F31" s="3">
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B32" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C32" s="3">
         <v>500</v>
@@ -2529,17 +2583,19 @@
       <c r="D32" s="3">
         <v>353004</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>85</v>
+      <c r="E32" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F32" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:6">
+      <c r="A33" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B33" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C33" s="3">
         <v>120</v>
@@ -2547,17 +2603,19 @@
       <c r="D33" s="3">
         <v>54312</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>85</v>
+      <c r="E33" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F33" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B34" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C34" s="3">
         <v>320</v>
@@ -2565,17 +2623,19 @@
       <c r="D34" s="3">
         <v>5561</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>85</v>
+      <c r="E34" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F34" s="3">
         <v>121.5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:6">
+      <c r="A35" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B35" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C35" s="3">
         <v>8</v>
@@ -2584,16 +2644,18 @@
         <v>55083</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c r="F35" s="3">
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B36" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C36" s="3">
         <v>8</v>
@@ -2602,16 +2664,18 @@
         <v>55082</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c r="F36" s="3">
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B37" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C37" s="3">
         <v>150</v>
@@ -2619,17 +2683,19 @@
       <c r="D37" s="3">
         <v>65740</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>85</v>
+      <c r="E37" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F37" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:6">
+      <c r="A38" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B38" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C38" s="3">
         <v>150</v>
@@ -2637,17 +2703,19 @@
       <c r="D38" s="3">
         <v>65741</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>85</v>
+      <c r="E38" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F38" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:6">
+      <c r="A39" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B39" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C39" s="3">
         <v>150</v>
@@ -2655,17 +2723,19 @@
       <c r="D39" s="3">
         <v>65742</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>85</v>
+      <c r="E39" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F39" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:6">
+      <c r="A40" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B40" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C40" s="3">
         <v>150</v>
@@ -2673,17 +2743,19 @@
       <c r="D40" s="3">
         <v>65743</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>85</v>
+      <c r="E40" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F40" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:6">
+      <c r="A41" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B41" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -2691,17 +2763,19 @@
       <c r="D41" s="5">
         <v>39444</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>85</v>
+      <c r="E41" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F41" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:6">
+      <c r="A42" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B42" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -2709,17 +2783,19 @@
       <c r="D42" s="5">
         <v>150260</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>85</v>
+      <c r="E42" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F42" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:6">
+      <c r="A43" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B43" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C43" s="3">
         <v>50</v>
@@ -2727,53 +2803,59 @@
       <c r="D43" s="5">
         <v>30619</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>85</v>
+      <c r="E43" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F43" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:6">
+      <c r="A44" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B44" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C44" s="3">
         <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>85</v>
+        <v>237</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F44" s="3">
         <v>7.45</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:6">
+      <c r="A45" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B45" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C45" s="3">
         <v>10</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>85</v>
+        <v>238</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F45" s="3">
         <v>7.45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:6">
+      <c r="A46" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B46" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C46" s="3">
         <v>50</v>
@@ -2781,17 +2863,19 @@
       <c r="D46" s="3">
         <v>100000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>85</v>
+      <c r="E46" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F46" s="3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+    <row r="47" spans="1:6">
+      <c r="A47" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B47" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C47" s="3">
         <v>1000</v>
@@ -2799,35 +2883,39 @@
       <c r="D47" s="3">
         <v>100046</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>85</v>
+      <c r="E47" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F47" s="3">
         <v>26.9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+    <row r="48" spans="1:6" ht="28">
+      <c r="A48" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B48" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D48" s="3">
         <v>10184</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>85</v>
+      <c r="E48" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F48" s="3">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+    <row r="49" spans="1:6">
+      <c r="A49" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B49" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
@@ -2835,17 +2923,19 @@
       <c r="D49" s="3">
         <v>60209</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>85</v>
+      <c r="E49" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F49" s="3">
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:6">
+      <c r="A50" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B50" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -2853,17 +2943,19 @@
       <c r="D50" s="3">
         <v>4912</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>85</v>
+      <c r="E50" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F50" s="3">
         <v>12.6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B51" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -2871,17 +2963,19 @@
       <c r="D51" s="3">
         <v>33018</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>85</v>
+      <c r="E51" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F51" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B52" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -2889,17 +2983,19 @@
       <c r="D52" s="3">
         <v>33005</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>85</v>
+      <c r="E52" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F52" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+    <row r="53" spans="1:6">
+      <c r="A53" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B53" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -2907,17 +3003,19 @@
       <c r="D53" s="3">
         <v>33006</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>85</v>
+      <c r="E53" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F53" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+    <row r="54" spans="1:6">
+      <c r="A54" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B54" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -2925,17 +3023,19 @@
       <c r="D54" s="3">
         <v>840523</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>85</v>
+      <c r="E54" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F54" s="3">
         <v>10.3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B55" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -2943,15 +3043,17 @@
       <c r="D55" s="3">
         <v>37563</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>85</v>
+      <c r="E55" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F55" s="3">
         <v>11.7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
@@ -2961,34 +3063,39 @@
       <c r="D56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>22</v>
+      <c r="E56" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F56" s="3">
         <v>12.4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:6">
+      <c r="A57" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B57" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D57" s="5">
         <v>139066</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>22</v>
+      <c r="E57" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F57" s="3">
         <v>128.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
+      <c r="A58" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B58" s="21" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C58" s="22">
         <v>1000</v>
@@ -2996,16 +3103,19 @@
       <c r="D58" s="22">
         <v>77170</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>85</v>
+      <c r="E58" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28">
+      <c r="A59" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B59" s="21" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C59" s="22">
         <v>50</v>
@@ -3013,571 +3123,635 @@
       <c r="D59" s="22">
         <v>51366</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>85</v>
+      <c r="E59" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B60" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>146</v>
+        <v>343</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F60" s="3">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="3">
         <v>4.72</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="3">
         <v>131</v>
       </c>
-      <c r="C61" s="13" t="s">
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="C73" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.5" customHeight="1">
+      <c r="A77" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17.5" customHeight="1">
+      <c r="A78" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="3">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F62" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64" s="3">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="3">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F66" s="3">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" s="3">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F69" s="3">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F70" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="3">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F74" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F75" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F76" s="3">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="17" t="s">
+      <c r="E79" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="3">
+        <v>118.45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="C80" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F77" s="3">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F78" s="3">
-        <v>118.45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F79" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>146</v>
+      <c r="E80" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F80" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
+    <row r="81" spans="1:7">
+      <c r="A81" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B81" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="E82" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="F82" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F82" s="3">
+    <row r="83" spans="1:7">
+      <c r="A83" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="3">
         <v>419</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F83" s="3">
+    <row r="84" spans="1:7">
+      <c r="A84" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="3">
         <v>159.94999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" s="3" t="s">
+    <row r="85" spans="1:7">
+      <c r="A85" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="3">
         <v>139</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F84" s="3">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="3">
-        <v>281</v>
       </c>
       <c r="G85" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
+    <row r="86" spans="1:7" customFormat="1">
+      <c r="A86" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B86" s="10" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F86" s="3">
+        <v>281</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="3">
         <v>45.45</v>
       </c>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C87" s="3">
-        <v>6</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F87" s="3">
-        <v>74.12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B88" s="14" t="s">
         <v>273</v>
       </c>
       <c r="C88" s="3">
-        <v>25</v>
-      </c>
-      <c r="D88" s="6">
-        <v>95960</v>
+        <v>6</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="F88" s="3">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+        <v>74.12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B89" s="14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C89" s="3">
         <v>25</v>
       </c>
-      <c r="D89" s="15" t="s">
-        <v>275</v>
+      <c r="D89" s="6">
+        <v>95960</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="F89" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B90" s="14" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C90" s="3">
         <v>25</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="F90" s="3">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B91" s="14" t="s">
         <v>279</v>
       </c>
@@ -3588,426 +3762,475 @@
         <v>272</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="F91" s="3">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B92" s="14" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C92" s="3">
         <v>25</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="F92" s="3">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B93" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C93" s="3">
         <v>25</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="F93" s="3">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="17" t="s">
-        <v>285</v>
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="C94" s="3">
         <v>25</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="3">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="3">
+        <v>25</v>
+      </c>
+      <c r="D95" s="15">
         <v>95963</v>
       </c>
-      <c r="E94" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="E95" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="3">
         <v>20.5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="C95" s="3">
+    <row r="96" spans="1:7">
+      <c r="A96" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="3">
         <v>1</v>
       </c>
-      <c r="D95" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" s="3">
+      <c r="D96" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="3">
         <v>93.4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10" t="s">
+    <row r="97" spans="1:6">
+      <c r="A97" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="3">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C98" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="3">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="E99" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="3">
         <v>11.93</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10" t="s">
+    <row r="100" spans="1:6">
+      <c r="A100" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F97" s="3">
-        <v>18.16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F98" s="3">
-        <v>11.93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F99" s="3">
-        <v>61.82</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>146</v>
+        <v>169</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F100" s="3">
         <v>61.82</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
+    <row r="101" spans="1:6">
+      <c r="A101" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B101" s="10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>146</v>
+        <v>171</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F101" s="3">
         <v>61.82</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
+      <c r="A102" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B102" s="10" t="s">
-        <v>348</v>
+        <v>172</v>
       </c>
       <c r="C102" s="3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>350</v>
+        <v>173</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F102" s="3">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
+        <v>61.82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B103" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>117</v>
+        <v>380</v>
       </c>
       <c r="F103" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
+    <row r="104" spans="1:6">
+      <c r="A104" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B104" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>117</v>
+        <v>380</v>
       </c>
       <c r="F104" s="3">
         <v>96.76</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
+    <row r="105" spans="1:6">
+      <c r="A105" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B105" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>117</v>
+        <v>380</v>
       </c>
       <c r="F105" s="3">
         <v>106.6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="24"/>
+    <row r="106" spans="1:6">
+      <c r="A106" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B106" s="33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F106" s="32">
         <v>279</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107"/>
+    <row r="107" spans="1:6">
+      <c r="A107" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B107" s="25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D107" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>341</v>
+        <v>34</v>
       </c>
       <c r="F107" s="3">
         <v>370</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F108" s="3">
         <v>56.16</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
+    <row r="109" spans="1:6">
+      <c r="A109" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B109" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B110" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B111" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F111" s="9">
         <v>249</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
+    <row r="112" spans="1:6">
+      <c r="A112" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B112" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F112" s="9"/>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
+    <row r="113" spans="1:6">
+      <c r="A113" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B113" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D113" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F113" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
+    <row r="114" spans="1:6">
+      <c r="A114" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B114" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E114" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F114" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
+    <row r="115" spans="1:6">
+      <c r="A115" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B115" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F115" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
+    <row r="116" spans="1:6" ht="28">
+      <c r="A116" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B116" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D116" s="3">
         <v>354249</v>
@@ -4019,13 +4242,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
+    <row r="117" spans="1:6" ht="28">
+      <c r="A117" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B117" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D117" s="3">
         <v>354352</v>
@@ -4037,13 +4262,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
+    <row r="118" spans="1:6" ht="28">
+      <c r="A118" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B118" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D118" s="3">
         <v>356234</v>
@@ -4055,13 +4282,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
+    <row r="119" spans="1:6" ht="28">
+      <c r="A119" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B119" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D119" s="3">
         <v>354234</v>
@@ -4070,13 +4299,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
+    <row r="120" spans="1:6" ht="28">
+      <c r="A120" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B120" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D120" s="3">
         <v>354236</v>
@@ -4088,8 +4319,10 @@
         <v>166.25</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
+    <row r="121" spans="1:6" ht="28">
+      <c r="A121" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B121" s="10" t="s">
         <v>7</v>
       </c>
@@ -4103,8 +4336,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
+    <row r="122" spans="1:6" ht="28">
+      <c r="A122" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B122" s="10" t="s">
         <v>9</v>
       </c>
@@ -4121,70 +4356,78 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
+    <row r="123" spans="1:6">
+      <c r="A123" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B123" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D123" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F123" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
+    <row r="124" spans="1:6">
+      <c r="A124" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B124" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F124" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
+    <row r="125" spans="1:6">
+      <c r="A125" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B125" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D125" s="8">
         <v>110514070001</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F125" s="3">
         <v>696.84</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
+    <row r="126" spans="1:6">
+      <c r="A126" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B126" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>14</v>
@@ -4193,16 +4436,18 @@
         <v>240.9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
+    <row r="127" spans="1:6">
+      <c r="A127" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B127" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>14</v>
@@ -4211,16 +4456,18 @@
         <v>154.9</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
+    <row r="128" spans="1:6">
+      <c r="A128" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B128" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>14</v>
@@ -4229,16 +4476,18 @@
         <v>93.27</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
+    <row r="129" spans="1:7">
+      <c r="A129" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B129" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>14</v>
@@ -4247,18 +4496,20 @@
         <v>44.42</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+    <row r="130" spans="1:7" customFormat="1">
+      <c r="A130" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B130" s="19" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="E130" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F130" s="19">
@@ -4266,116 +4517,130 @@
       </c>
       <c r="G130" s="31"/>
     </row>
-    <row r="131" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131"/>
+    <row r="131" spans="1:7" s="24" customFormat="1">
+      <c r="A131" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B131" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="F131" s="24">
         <v>152</v>
       </c>
       <c r="G131" s="32"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
+    <row r="132" spans="1:7">
+      <c r="A132" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B132" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="F132" s="3">
         <v>371.1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
+    <row r="133" spans="1:7">
+      <c r="A133" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B133" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D133" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B134" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="C134" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10" t="s">
+      <c r="C135" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D135" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F135" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10" t="s">
+      <c r="D136" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B137" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D137" s="3">
         <v>31041</v>
@@ -4387,13 +4652,15 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
+    <row r="138" spans="1:7">
+      <c r="A138" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B138" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D138" s="3">
         <v>123897</v>
@@ -4402,16 +4669,18 @@
         <v>14</v>
       </c>
       <c r="F138" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B139" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10" t="s">
+      <c r="C139" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D139" s="3">
         <v>45614</v>
@@ -4420,16 +4689,18 @@
         <v>14</v>
       </c>
       <c r="F139" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="C140" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D140" s="3">
         <v>190276</v>
@@ -4438,11 +4709,13 @@
         <v>14</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B141" s="10" t="s">
         <v>11</v>
       </c>
@@ -4459,8 +4732,10 @@
         <v>211.5</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
+    <row r="142" spans="1:7">
+      <c r="A142" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B142" s="10" t="s">
         <v>15</v>
       </c>
@@ -4474,8 +4749,10 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
+    <row r="143" spans="1:7">
+      <c r="A143" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B143" s="10" t="s">
         <v>17</v>
       </c>
@@ -4492,13 +4769,15 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
+    <row r="144" spans="1:7">
+      <c r="A144" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B144" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D144" s="3">
         <v>322415</v>
@@ -4510,16 +4789,18 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
+    <row r="145" spans="1:7">
+      <c r="A145" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B145" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>14</v>
@@ -4528,13 +4809,15 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
+    <row r="146" spans="1:7">
+      <c r="A146" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B146" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D146" s="3">
         <v>24122</v>
@@ -4546,16 +4829,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
+    <row r="147" spans="1:7">
+      <c r="A147" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B147" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>14</v>
@@ -4564,16 +4849,18 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
+    <row r="148" spans="1:7">
+      <c r="A148" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B148" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>14</v>
@@ -4582,13 +4869,15 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
+    <row r="149" spans="1:7">
+      <c r="A149" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B149" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D149" s="3">
         <v>87917</v>
@@ -4600,13 +4889,15 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
+    <row r="150" spans="1:7">
+      <c r="A150" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B150" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D150" s="3">
         <v>14533</v>
@@ -4618,16 +4909,18 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
+    <row r="151" spans="1:7">
+      <c r="A151" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B151" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>14</v>
@@ -4636,16 +4929,18 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
+    <row r="152" spans="1:7">
+      <c r="A152" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B152" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>14</v>
@@ -4654,16 +4949,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
+    <row r="153" spans="1:7">
+      <c r="A153" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B153" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>14</v>
@@ -4672,315 +4969,339 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
+    <row r="154" spans="1:7">
+      <c r="A154" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B154" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D154" s="3">
         <v>188212</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F154" s="3">
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10" t="s">
+    <row r="155" spans="1:7">
+      <c r="A155" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D155" s="1">
+        <v>13810</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F155" s="3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="E156" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="F156" s="3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B157" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F155" s="3">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10" t="s">
+      <c r="C157" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D156" s="3">
+      <c r="D157" s="3">
         <v>8985707</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F156" s="3">
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D157" s="3">
-        <v>8985726</v>
-      </c>
       <c r="E157" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F157" s="3">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="158" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" t="s">
-        <v>365</v>
-      </c>
-      <c r="C158" s="19">
-        <v>50</v>
-      </c>
-      <c r="D158">
-        <v>55260</v>
-      </c>
-      <c r="E158" t="s">
-        <v>288</v>
-      </c>
-      <c r="F158">
-        <v>135.69999999999999</v>
+    <row r="158" spans="1:7" customFormat="1">
+      <c r="A158" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D158" s="3">
+        <v>8985726</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F158" s="3">
+        <v>64.400000000000006</v>
       </c>
       <c r="G158" s="19"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
+    <row r="159" spans="1:7">
+      <c r="A159" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B159" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C159" s="3">
         <v>50</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F159" s="3">
         <v>46.8</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
+    <row r="160" spans="1:7">
+      <c r="A160" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B160" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C160" s="3">
         <v>50</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F160" s="3">
         <v>114.7</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
+    <row r="161" spans="1:6">
+      <c r="A161" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B161" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C161" s="3">
         <v>50</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F161" s="3">
         <v>52.8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
+    <row r="162" spans="1:6">
+      <c r="A162" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B162" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C162" s="3">
         <v>50</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F162" s="3">
         <v>47.3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
+    <row r="163" spans="1:6">
+      <c r="A163" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B163" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D163" s="3">
         <v>5527801</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F163" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
+    <row r="164" spans="1:6">
+      <c r="A164" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B164" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F164" s="3">
         <v>26.9</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
+    <row r="165" spans="1:6">
+      <c r="A165" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B165" s="17" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C165" s="3">
         <v>1</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="10"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="10"/>
       <c r="B177" s="14"/>
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="27" customHeight="1">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9">
       <c r="A180" s="17"/>
       <c r="B180" s="10"/>
       <c r="H180" s="23"/>
       <c r="I180" s="23"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9">
       <c r="F181" s="20"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9">
       <c r="B183" s="38"/>
       <c r="C183" s="39"/>
       <c r="D183" s="40"/>
       <c r="E183" s="38"/>
       <c r="F183" s="39"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="B184" s="37"/>
       <c r="C184" s="38"/>
       <c r="D184" s="37"/>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="B185" s="37"/>
       <c r="C185" s="38"/>
       <c r="D185" s="37"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="B186" s="37"/>
       <c r="C186" s="38"/>
       <c r="D186" s="37"/>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="B187" s="42"/>
       <c r="C187" s="43"/>
       <c r="D187" s="44"/>
@@ -4988,7 +5309,7 @@
       <c r="F187" s="44"/>
       <c r="G187" s="41"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="B188" s="45"/>
       <c r="C188" s="31"/>
       <c r="D188" s="43"/>
@@ -4996,11 +5317,11 @@
       <c r="F188" s="44"/>
       <c r="G188" s="41"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="B189" s="10"/>
       <c r="G189" s="31"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15">
       <c r="B190" s="46"/>
       <c r="C190" s="31"/>
       <c r="D190" s="45"/>
@@ -5008,7 +5329,7 @@
       <c r="F190" s="45"/>
       <c r="G190" s="31"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="B191" s="48"/>
       <c r="C191" s="31"/>
       <c r="D191" s="45"/>
@@ -5016,7 +5337,7 @@
       <c r="F191" s="45"/>
       <c r="G191" s="31"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="B192" s="48"/>
       <c r="C192" s="31"/>
       <c r="D192" s="45"/>
@@ -5024,27 +5345,27 @@
       <c r="F192" s="45"/>
       <c r="G192" s="31"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6">
       <c r="B193" s="55"/>
       <c r="C193" s="35"/>
       <c r="D193" s="36"/>
       <c r="E193" s="36"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6">
       <c r="B194" s="49"/>
       <c r="C194" s="13"/>
       <c r="D194" s="49"/>
       <c r="E194" s="13"/>
       <c r="F194" s="54"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6">
       <c r="B195" s="49"/>
       <c r="C195" s="13"/>
       <c r="D195" s="49"/>
       <c r="E195" s="13"/>
       <c r="F195" s="54"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6">
       <c r="B196" s="49"/>
       <c r="C196" s="13"/>
       <c r="D196" s="49"/>
@@ -5053,34 +5374,39 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F183">
-    <sortState ref="A2:F179">
-      <sortCondition ref="E1:E179"/>
+    <sortState ref="A2:F183">
+      <sortCondition ref="E1:E183"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:G179">
     <sortCondition ref="E4"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D73" r:id="rId1" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3413D"/>
-    <hyperlink ref="D75" r:id="rId2" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3470H"/>
-    <hyperlink ref="D79" r:id="rId3" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3513C"/>
-    <hyperlink ref="D76" r:id="rId4" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3479A"/>
-    <hyperlink ref="D87" r:id="rId5" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W31470"/>
-    <hyperlink ref="D95" r:id="rId6" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W24674"/>
-    <hyperlink ref="D65" r:id="rId7" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3466X"/>
-    <hyperlink ref="D66" r:id="rId8" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3378C"/>
-    <hyperlink ref="D67" r:id="rId9" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W34897"/>
-    <hyperlink ref="D68" r:id="rId10" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W34835"/>
-    <hyperlink ref="D69" r:id="rId11" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3468W"/>
-    <hyperlink ref="D70" r:id="rId12" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W34836"/>
-    <hyperlink ref="D64" r:id="rId13" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W35246"/>
-    <hyperlink ref="D71" r:id="rId14" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3493R"/>
-    <hyperlink ref="D62" r:id="rId15" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W241K8"/>
-    <hyperlink ref="D61" r:id="rId16" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3493L"/>
+    <hyperlink ref="D74" r:id="rId1" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3413D"/>
+    <hyperlink ref="D76" r:id="rId2" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3470H"/>
+    <hyperlink ref="D80" r:id="rId3" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3513C"/>
+    <hyperlink ref="D77" r:id="rId4" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3479A"/>
+    <hyperlink ref="D88" r:id="rId5" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W31470"/>
+    <hyperlink ref="D96" r:id="rId6" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W24674"/>
+    <hyperlink ref="D66" r:id="rId7" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3466X"/>
+    <hyperlink ref="D67" r:id="rId8" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3378C"/>
+    <hyperlink ref="D68" r:id="rId9" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W34897"/>
+    <hyperlink ref="D69" r:id="rId10" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W34835"/>
+    <hyperlink ref="D70" r:id="rId11" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3468W"/>
+    <hyperlink ref="D71" r:id="rId12" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W34836"/>
+    <hyperlink ref="D65" r:id="rId13" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W35246"/>
+    <hyperlink ref="D72" r:id="rId14" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3493R"/>
+    <hyperlink ref="D63" r:id="rId15" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W241K8"/>
+    <hyperlink ref="D62" r:id="rId16" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3493L"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId17"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5088,26 +5414,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="67.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="19"/>
+    <col min="2" max="2" width="67.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="28" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -5116,21 +5442,21 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
       <c r="B2" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3">
         <v>1000</v>
@@ -5139,7 +5465,7 @@
         <v>33297</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3">
         <v>52</v>
@@ -5148,12 +5474,12 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C3" s="3">
         <v>500</v>
@@ -5162,7 +5488,7 @@
         <v>33283</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="3">
         <v>37.700000000000003</v>
@@ -5171,12 +5497,12 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="17" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C4" s="3">
         <v>100</v>
@@ -5185,7 +5511,7 @@
         <v>353109</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3">
         <v>138.6</v>
@@ -5194,12 +5520,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="16.25" customHeight="1">
       <c r="B5" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C5" s="3">
         <v>120</v>
@@ -5208,7 +5534,7 @@
         <v>54312</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="3">
         <v>236</v>
@@ -5217,9 +5543,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3">
         <v>150</v>
@@ -5228,7 +5554,7 @@
         <v>65740</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3">
         <v>5.6</v>
@@ -5237,12 +5563,12 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C7" s="3">
         <v>150</v>
@@ -5251,7 +5577,7 @@
         <v>65741</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3">
         <v>5.6</v>
@@ -5260,21 +5586,21 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="3">
         <v>7.45</v>
@@ -5283,21 +5609,21 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="16.25" customHeight="1">
       <c r="B9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D9" s="3">
         <v>10184</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3">
         <v>4.0999999999999996</v>
@@ -5306,12 +5632,12 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="21" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C10" s="22">
         <v>1000</v>
@@ -5320,21 +5646,21 @@
         <v>77170</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G10" s="27">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="29.5" customHeight="1">
       <c r="B11" s="21" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C11" s="22">
         <v>50</v>
@@ -5343,41 +5669,41 @@
         <v>51366</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G11" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="28">
       <c r="B12" s="34" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G12" s="28">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="14.5" customHeight="1">
       <c r="B13" s="21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C13" s="32">
         <v>1</v>
@@ -5386,33 +5712,33 @@
         <v>66564</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G13" s="28">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="14.5" customHeight="1">
       <c r="B14" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F14" s="3">
         <v>110</v>
@@ -5421,21 +5747,21 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="3" customFormat="1">
       <c r="B15" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F15" s="3">
         <v>131</v>
@@ -5444,21 +5770,21 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="3" customFormat="1">
       <c r="B16" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3">
         <v>157</v>
@@ -5467,19 +5793,19 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="3">
         <v>419</v>
@@ -5488,21 +5814,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" s="33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F18" s="32">
         <v>279</v>
@@ -5511,18 +5837,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" s="25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G19" s="28">
         <v>1</v>
@@ -5531,43 +5857,43 @@
         <v>250112</v>
       </c>
       <c r="I19" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1">
       <c r="A20" s="10"/>
       <c r="B20" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="29">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F21" s="3">
         <v>35</v>
@@ -5576,12 +5902,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="3" customFormat="1">
       <c r="B22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D22" s="3">
         <v>354352</v>
@@ -5596,15 +5922,15 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="16.25" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D23" s="3">
         <v>354234</v>
@@ -5616,18 +5942,18 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>14</v>
@@ -5639,18 +5965,18 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>14</v>
@@ -5662,15 +5988,15 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D26" s="3">
         <v>31041</v>
@@ -5685,21 +6011,21 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="24" customFormat="1">
       <c r="B27" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F27">
         <v>152</v>
@@ -5708,27 +6034,27 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="19">
         <v>45614</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G28" s="28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5741,7 +6067,12 @@
     <hyperlink ref="D16" r:id="rId2" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W34897"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5753,21 +6084,21 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -5776,16 +6107,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" s="3">
         <v>50</v>
@@ -5794,7 +6125,7 @@
         <v>353043</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F2" s="3">
         <v>146.9</v>
@@ -5804,10 +6135,10 @@
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="28.25" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3" s="3">
         <v>50</v>
@@ -5816,7 +6147,7 @@
         <v>353046</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F3" s="3">
         <v>118.5</v>
@@ -5825,15 +6156,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
@@ -5845,18 +6176,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.5" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C5" s="3">
         <v>1000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F5" s="3">
         <v>18.899999999999999</v>
@@ -5865,10 +6196,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.5" customHeight="1">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.5" customHeight="1">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -5879,7 +6210,12 @@
   </sheetData>
   <autoFilter ref="B1:G5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5891,19 +6227,19 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -5912,15 +6248,15 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B2" s="3">
         <v>300</v>
@@ -5929,7 +6265,7 @@
         <v>227270</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3">
         <v>119.5</v>
@@ -5938,18 +6274,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="28">
       <c r="A3" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" s="3">
         <v>35</v>
@@ -5958,9 +6294,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="21" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" s="3">
         <v>150</v>
@@ -5969,7 +6305,7 @@
         <v>65741</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="3">
         <v>5.6</v>
@@ -5978,9 +6314,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="21" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B5" s="3">
         <v>500</v>
@@ -5989,7 +6325,7 @@
         <v>700000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3">
         <v>2.9</v>
@@ -5998,18 +6334,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="23.5" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B6" s="3">
         <v>1000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="3">
         <v>9</v>
@@ -6018,18 +6354,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E7" s="3">
         <v>131</v>
@@ -6038,15 +6374,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -6058,15 +6394,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
@@ -6078,9 +6414,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B10" s="3">
         <v>100</v>
@@ -6089,7 +6425,7 @@
         <v>353109</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3">
         <v>138.6</v>
@@ -6098,18 +6434,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="E11" s="3">
         <v>15</v>
@@ -6118,19 +6454,19 @@
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="55" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="36" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E12" s="3">
         <v>484</v>
@@ -6138,24 +6474,24 @@
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="49" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="56">
         <v>114.61</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
@@ -6170,24 +6506,24 @@
       <c r="Q13" s="50"/>
       <c r="R13" s="51"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="49" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="56">
         <v>36.71</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
@@ -6202,24 +6538,24 @@
       <c r="Q14" s="50"/>
       <c r="R14" s="51"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="49" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="56">
         <v>45.66</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
@@ -6234,15 +6570,15 @@
       <c r="Q15" s="50"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="57" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D16" s="61" t="s">
         <v>14</v>
@@ -6255,18 +6591,18 @@
       </c>
       <c r="G16" s="35"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="57" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C17" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D17" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E17" s="58">
         <v>524</v>
@@ -6276,7 +6612,7 @@
       </c>
       <c r="G17" s="35"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="53"/>
@@ -6284,7 +6620,7 @@
       <c r="F18" s="53"/>
       <c r="G18" s="35"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="50"/>
@@ -6292,7 +6628,7 @@
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="50"/>
@@ -6300,7 +6636,7 @@
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
@@ -6314,5 +6650,10 @@
     <hyperlink ref="C7" r:id="rId1" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3466X"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/listeProduits.xlsx
+++ b/listeProduits.xlsx
@@ -12,16 +12,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LISTE!$A$1:$E$113</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="659">
   <si>
     <t>Identification</t>
   </si>
   <si>
+    <t>référence</t>
+  </si>
+  <si>
+    <t>fournisseur</t>
+  </si>
+  <si>
     <t>Pharmingen BD Biosciences</t>
   </si>
   <si>
@@ -64,6 +70,12 @@
     <t>O37510</t>
   </si>
   <si>
+    <t>Dutscher</t>
+  </si>
+  <si>
+    <t>boite de congélation</t>
+  </si>
+  <si>
     <t>48 inserts</t>
   </si>
   <si>
@@ -124,9 +136,18 @@
     <t>F4021</t>
   </si>
   <si>
+    <t>KIT ELISA QUANTITAION RAT ALBUMINE</t>
+  </si>
+  <si>
     <t>e110-125</t>
   </si>
   <si>
+    <t>Bethyl laboratories</t>
+  </si>
+  <si>
+    <t>Ac anti Connexine 43 rabbit Pc</t>
+  </si>
+  <si>
     <t>200µg</t>
   </si>
   <si>
@@ -211,6 +232,9 @@
     <t>Macherey-Nagel</t>
   </si>
   <si>
+    <t>dutscher</t>
+  </si>
+  <si>
     <t>Volume/Qté</t>
   </si>
   <si>
@@ -298,6 +322,9 @@
     <t>1mg x6</t>
   </si>
   <si>
+    <t>fisher scientific</t>
+  </si>
+  <si>
     <t>10mLx10</t>
   </si>
   <si>
@@ -334,6 +361,9 @@
     <t>P4170</t>
   </si>
   <si>
+    <t xml:space="preserve">Methanol </t>
+  </si>
+  <si>
     <t xml:space="preserve">Williams Med Red </t>
   </si>
   <si>
@@ -376,6 +406,9 @@
     <t>W3513C</t>
   </si>
   <si>
+    <t>fisher</t>
+  </si>
+  <si>
     <t>500mL x10</t>
   </si>
   <si>
@@ -388,6 +421,9 @@
     <t>GLN1-1KT</t>
   </si>
   <si>
+    <t>sigma</t>
+  </si>
+  <si>
     <t>W26158</t>
   </si>
   <si>
@@ -409,6 +445,12 @@
     <t>W22478</t>
   </si>
   <si>
+    <t>filtre SFCA 0,2µm</t>
+  </si>
+  <si>
+    <t>filtre SFCA 0,45µm</t>
+  </si>
+  <si>
     <t>Gentamicin</t>
   </si>
   <si>
@@ -430,15 +472,30 @@
     <t>x10</t>
   </si>
   <si>
+    <t>raccord en T</t>
+  </si>
+  <si>
+    <t>raccord 1,6x2,3mm</t>
+  </si>
+  <si>
     <t>W95905</t>
   </si>
   <si>
+    <t>tamis 0,1mm</t>
+  </si>
+  <si>
     <t>W37512</t>
   </si>
   <si>
+    <t>tamis 0,3mm</t>
+  </si>
+  <si>
     <t>W37727</t>
   </si>
   <si>
+    <t>tamis 0,4mm</t>
+  </si>
+  <si>
     <t>W37524</t>
   </si>
   <si>
@@ -451,6 +508,9 @@
     <t>Percoll densité 1,124</t>
   </si>
   <si>
+    <t>vwr</t>
+  </si>
+  <si>
     <t xml:space="preserve">cellule de malassez </t>
   </si>
   <si>
@@ -466,12 +526,21 @@
     <t>734-0028</t>
   </si>
   <si>
+    <t>plaque 12puits BD falcon</t>
+  </si>
+  <si>
+    <t>plaque 48puits BD falcon</t>
+  </si>
+  <si>
     <t>plaque 96puits BD falcon</t>
   </si>
   <si>
     <t>734-0006</t>
   </si>
   <si>
+    <t>plaque 6 puits BD falcon</t>
+  </si>
+  <si>
     <t>734-0019</t>
   </si>
   <si>
@@ -484,15 +553,33 @@
     <t>Collagen high concentration</t>
   </si>
   <si>
+    <t xml:space="preserve">gant ecoshield latex T5-6 XS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gant ecoshield latex T6-7 S </t>
+  </si>
+  <si>
+    <t>gant ecoshield latex T7-8 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lame dd verre 76x26 </t>
+  </si>
+  <si>
     <t>5mLx100</t>
   </si>
   <si>
+    <t>lamelle couvre objet 22x40</t>
+  </si>
+  <si>
     <t>Alexa fluor goat anti mouse</t>
   </si>
   <si>
     <t>3039E</t>
   </si>
   <si>
+    <t>film aluminium 33cm</t>
+  </si>
+  <si>
     <t>Lab-Tek nunc 8 chambres</t>
   </si>
   <si>
@@ -547,21 +634,87 @@
     <t>037650A</t>
   </si>
   <si>
+    <t>eppendorf 0,5ml</t>
+  </si>
+  <si>
+    <t>eppendorf 1,5ml</t>
+  </si>
+  <si>
+    <t>eppendorf 2ml</t>
+  </si>
+  <si>
+    <t>pointe fleu 1000µl vrac greiner</t>
+  </si>
+  <si>
+    <t>pointe jaune 200µl vrac greiner</t>
+  </si>
+  <si>
+    <t>pointe blanche 10µl vrac</t>
+  </si>
+  <si>
     <t>10mlx100</t>
   </si>
   <si>
     <t>20mlx50</t>
   </si>
   <si>
+    <t>pipette 1mL</t>
+  </si>
+  <si>
+    <t>pipette 2mL</t>
+  </si>
+  <si>
+    <t>pipette 5mL</t>
+  </si>
+  <si>
+    <t>pipette 10mL</t>
+  </si>
+  <si>
+    <t>pipette 25mL</t>
+  </si>
+  <si>
     <t>MODULE F16 MAXISORP SEUL Nunc</t>
   </si>
   <si>
+    <t>microplaques 96puits en polypropylène Nunc noir</t>
+  </si>
+  <si>
+    <t>eppendorf PCR clean 1,5mL</t>
+  </si>
+  <si>
+    <t>ruban autoclave 50m/19mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masque 3plis vert </t>
+  </si>
+  <si>
     <t>132621sw</t>
   </si>
   <si>
     <t>132623sw</t>
   </si>
   <si>
+    <t>aiguille sterile 19G-1 1,1x25mm (creme)</t>
+  </si>
+  <si>
+    <t>pipetman</t>
+  </si>
+  <si>
+    <t>scalpel/ bistouris stériles standard n°21</t>
+  </si>
+  <si>
+    <t>scalpel/ bistouris stériles standard n°23</t>
+  </si>
+  <si>
+    <t>boite de pétri  tissue culture 60x15mm BD Falcon</t>
+  </si>
+  <si>
+    <t>seringue terumo  1 ml INSULINE</t>
+  </si>
+  <si>
+    <t>seringue terumo  5mL</t>
+  </si>
+  <si>
     <t>W3497P</t>
   </si>
   <si>
@@ -587,6 +740,24 @@
   </si>
   <si>
     <t>HBSS</t>
+  </si>
+  <si>
+    <t>micropipette eppendorf 0,5-10µl</t>
+  </si>
+  <si>
+    <t>micropipette eppendorf 20-200µl</t>
+  </si>
+  <si>
+    <t>micropipette eppendorf 100-1000µl</t>
+  </si>
+  <si>
+    <t>portoir pour 80microtubes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portoir réversibles multiface </t>
+  </si>
+  <si>
+    <t>filtre 0,45µm stérile pour pipetman</t>
   </si>
   <si>
     <r>
@@ -644,24 +815,54 @@
     <t>W95901</t>
   </si>
   <si>
+    <t>écrou Luer Lock : Luer femelle 1,6mm</t>
+  </si>
+  <si>
+    <t>écrou Luer PP : bouchon Luer mâle</t>
+  </si>
+  <si>
     <t>8762B</t>
   </si>
   <si>
     <t>8762Y</t>
   </si>
   <si>
+    <t>tuyau silicone (blanc-orange) 0,64mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">W31470 </t>
   </si>
   <si>
+    <t>raccord PP droit 1,6x1,6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">embout Luer mâle </t>
+  </si>
+  <si>
     <t>W95956</t>
   </si>
   <si>
+    <t>raccord PP mâle 10-30UNF 1,6mm</t>
+  </si>
+  <si>
+    <t>écrou Luer PP : Luer femelle 10-32 UNF mâle 1,6mm</t>
+  </si>
+  <si>
     <t>W28826</t>
   </si>
   <si>
+    <t xml:space="preserve">coupleur Luer femelle </t>
+  </si>
+  <si>
     <t xml:space="preserve">W24674 </t>
   </si>
   <si>
+    <t>tube PTFE 20m 0,8x1,6mm</t>
+  </si>
+  <si>
+    <t>dustcher</t>
+  </si>
+  <si>
     <t xml:space="preserve">W3466X </t>
   </si>
   <si>
@@ -671,6 +872,9 @@
     <t xml:space="preserve">W3378C </t>
   </si>
   <si>
+    <t>PBS pH7,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">W34897 </t>
   </si>
   <si>
@@ -776,6 +980,12 @@
     <t>NucleoSpin RNA XS (250)</t>
   </si>
   <si>
+    <t>invitrogen - Fisher</t>
+  </si>
+  <si>
+    <t>jaune lucifer dilithium</t>
+  </si>
+  <si>
     <t>L0259-25mg</t>
   </si>
   <si>
@@ -785,12 +995,21 @@
     <t>W8886D</t>
   </si>
   <si>
+    <t>fischer</t>
+  </si>
+  <si>
+    <t>filtre 0,2µm stérile pour pipetman, cellulose acteta</t>
+  </si>
+  <si>
     <t>514-0061</t>
   </si>
   <si>
     <t xml:space="preserve"> C2938 - W3081P</t>
   </si>
   <si>
+    <t>Ac Iaire Pc Rabbit anti Claudin11</t>
+  </si>
+  <si>
     <t>1ml</t>
   </si>
   <si>
@@ -803,9 +1022,21 @@
     <t xml:space="preserve"> D450</t>
   </si>
   <si>
+    <t>Sigma-aldrich</t>
+  </si>
+  <si>
     <t>DMSO 99.5%</t>
   </si>
   <si>
+    <t>etiquettes rondes Though-Spots JAUNE</t>
+  </si>
+  <si>
+    <t>Dustcher</t>
+  </si>
+  <si>
+    <t>thermo</t>
+  </si>
+  <si>
     <t>ISOTON® II Diluent, 20 L</t>
   </si>
   <si>
@@ -815,9 +1046,15 @@
     <t>20L</t>
   </si>
   <si>
+    <t>acuvette Coulter 20 ml</t>
+  </si>
+  <si>
     <t>10 * 60 ml</t>
   </si>
   <si>
+    <t>12 * 20ml</t>
+  </si>
+  <si>
     <t>W3521C</t>
   </si>
   <si>
@@ -827,9 +1064,15 @@
     <t>Sorenson</t>
   </si>
   <si>
+    <t>multiplex round tips sterile 1-200µl , 0.57 mm O.D for SDS page, lenght 83 mm</t>
+  </si>
+  <si>
     <t>plaque 96 puits transparante fond plat + couvercle</t>
   </si>
   <si>
+    <t>Claudine 1 de lapin</t>
+  </si>
+  <si>
     <t xml:space="preserve">InVitrogen </t>
   </si>
   <si>
@@ -869,13 +1112,25 @@
     <t>Consommables</t>
   </si>
   <si>
+    <t>Milieux</t>
+  </si>
+  <si>
+    <t>gant ecoshield latex T8-9 L</t>
+  </si>
+  <si>
     <t>Consommables liquides</t>
   </si>
   <si>
+    <t>Compléments milieux</t>
+  </si>
+  <si>
     <t>Marqueurs</t>
   </si>
   <si>
     <t>Urée , kit dosage Konelab 60ml</t>
+  </si>
+  <si>
+    <t>Urée , kit dosage Konelab 20ml</t>
   </si>
   <si>
     <t>alpha MEM</t>
@@ -1001,6 +1256,9 @@
     <t>Marqueurs assortis pointe fine</t>
   </si>
   <si>
+    <t>multiflex round tips</t>
+  </si>
+  <si>
     <t>Papier pesée</t>
   </si>
   <si>
@@ -1010,6 +1268,12 @@
     <t>Plaque 96 puits standard coloris noir</t>
   </si>
   <si>
+    <t>pointe low</t>
+  </si>
+  <si>
+    <t>pointes 1-300 µl extra longue</t>
+  </si>
+  <si>
     <t>130930T</t>
   </si>
   <si>
@@ -1052,6 +1316,9 @@
     <t xml:space="preserve">3-Phenoxybenzaldehyde </t>
   </si>
   <si>
+    <t>sigma-Aldrich</t>
+  </si>
+  <si>
     <t>4 MU</t>
   </si>
   <si>
@@ -1100,6 +1367,9 @@
     <t>21884-100MG</t>
   </si>
   <si>
+    <t>chloroform</t>
+  </si>
+  <si>
     <t>Diclofenac</t>
   </si>
   <si>
@@ -1142,6 +1412,9 @@
     <t>H6147</t>
   </si>
   <si>
+    <t>inserts polycarbonates plaque 6 puits</t>
+  </si>
+  <si>
     <t>CLS3412</t>
   </si>
   <si>
@@ -1175,15 +1448,27 @@
     <t>SL2-100ML</t>
   </si>
   <si>
+    <t>tween 20%</t>
+  </si>
+  <si>
     <t>P1379</t>
   </si>
   <si>
+    <t>promega</t>
+  </si>
+  <si>
+    <t>cell titer96 Aqeous</t>
+  </si>
+  <si>
     <t>1000 assays</t>
   </si>
   <si>
     <t>G5421</t>
   </si>
   <si>
+    <t>tube stock échantillons</t>
+  </si>
+  <si>
     <t>K-ND9-C-ST</t>
   </si>
   <si>
@@ -1202,6 +1487,9 @@
     <t>E80-129</t>
   </si>
   <si>
+    <t>BETHYL LABORATORIE</t>
+  </si>
+  <si>
     <t>Bilirubin directe</t>
   </si>
   <si>
@@ -1221,6 +1509,9 @@
   </si>
   <si>
     <t>A14430-01</t>
+  </si>
+  <si>
+    <t>gibco</t>
   </si>
   <si>
     <t xml:space="preserve"> HBM™ Basal
@@ -1245,6 +1536,9 @@
     <t>D8000C</t>
   </si>
   <si>
+    <t>r&amp;d systems</t>
+  </si>
+  <si>
     <t>Easycoll density 1,124 g/mL 500ml</t>
   </si>
   <si>
@@ -1275,6 +1569,9 @@
     <t>Entonnoir à usage général diamètre bas 8,5mm</t>
   </si>
   <si>
+    <t>lamelle pour cellules de Malassez</t>
+  </si>
+  <si>
     <t>Pipeteur S1 coloris vert</t>
   </si>
   <si>
@@ -1368,15 +1665,24 @@
     <t>Santa-Cruz Biotechnology</t>
   </si>
   <si>
+    <t>lignée cellulaire HK-2</t>
+  </si>
+  <si>
     <t>CRL-2190</t>
   </si>
   <si>
     <t>ATCC</t>
   </si>
   <si>
+    <t>omeprazole</t>
+  </si>
+  <si>
     <t>AP8138</t>
   </si>
   <si>
+    <t>art molecule</t>
+  </si>
+  <si>
     <t>Goat IgG Fraction to Human Albumin</t>
   </si>
   <si>
@@ -1407,6 +1713,9 @@
     <t>7-Ethoxycoumarin</t>
   </si>
   <si>
+    <t>100 mG</t>
+  </si>
+  <si>
     <t>E1379-100MG</t>
   </si>
   <si>
@@ -1458,9 +1767,24 @@
     <t>Fisher scientific</t>
   </si>
   <si>
+    <t>Anticorps anti Ki67 de lapin </t>
+  </si>
+  <si>
+    <t>Fisher (invitrogen)</t>
+  </si>
+  <si>
+    <t>Anticorps monoclonal anti Claudine 1 humain</t>
+  </si>
+  <si>
     <t>100µg</t>
   </si>
   <si>
+    <t>Anticorps monoclonal anti occludine humain</t>
+  </si>
+  <si>
+    <t>Anticorps GAPDH monoclonal</t>
+  </si>
+  <si>
     <t>AM 4300</t>
   </si>
   <si>
@@ -1491,24 +1815,64 @@
     <t>CC-3198</t>
   </si>
   <si>
+    <t>Anticorps anti alpha foeta proteine humaine </t>
+  </si>
+  <si>
     <t>Ab 3980</t>
   </si>
   <si>
     <t>AbCAM</t>
   </si>
   <si>
+    <t>barrette test elisa</t>
+  </si>
+  <si>
     <t>BOITE 100 LAMES</t>
   </si>
   <si>
     <t>ref 010197</t>
   </si>
   <si>
+    <t>Duscher</t>
+  </si>
+  <si>
+    <r>
+      <t>cone low binding 0.1 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>µL</t>
+    </r>
+  </si>
+  <si>
     <t>037660TA</t>
   </si>
   <si>
+    <t>cone low binding 10-1000µL</t>
+  </si>
+  <si>
     <t>035190A</t>
   </si>
   <si>
+    <r>
+      <t>cone low binding 1-200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>µL</t>
+    </r>
+  </si>
+  <si>
     <t>035100A</t>
   </si>
   <si>
@@ -1593,6 +1957,9 @@
     <t>Portoir mousse dia 8mm</t>
   </si>
   <si>
+    <t xml:space="preserve">portoir plaque </t>
+  </si>
+  <si>
     <t>Sachet  zip 230*320 avec plage de marquage</t>
   </si>
   <si>
@@ -1603,6 +1970,9 @@
   </si>
   <si>
     <t>72/boîte</t>
+  </si>
+  <si>
+    <t>Dutcher</t>
   </si>
   <si>
     <t>BOCAL A STERILISATION 1000ML Parisienne de Verrerie</t>
@@ -1751,6 +2121,9 @@
     <t>448931-10G</t>
   </si>
   <si>
+    <t>substrat tablet</t>
+  </si>
+  <si>
     <t>P6912-100TAB</t>
   </si>
   <si>
@@ -1772,12 +2145,30 @@
     <t>Cloup</t>
   </si>
   <si>
+    <t>Kit Albumine humaine</t>
+  </si>
+  <si>
+    <t>bethyl</t>
+  </si>
+  <si>
+    <t>kit Urée</t>
+  </si>
+  <si>
     <t>12x20 mL</t>
   </si>
   <si>
+    <t>Kit Glucose</t>
+  </si>
+  <si>
+    <t>Kit Scal</t>
+  </si>
+  <si>
     <t>10x3 mL</t>
   </si>
   <si>
+    <t>Khonelab</t>
+  </si>
+  <si>
     <t>TRYPSINE sans rouge de phenol</t>
   </si>
   <si>
@@ -1793,396 +2184,14 @@
     <t>Boîte PETRI VERRE 6 CM</t>
   </si>
   <si>
-    <t>Sigma-Aldrich</t>
-  </si>
-  <si>
-    <t>Invitrogen - Fisher</t>
-  </si>
-  <si>
-    <t>Petit équipement</t>
-  </si>
-  <si>
-    <t>D. Dutscher</t>
-  </si>
-  <si>
-    <t>Aiguille sterile 19G-1 1,1x25mm (creme)</t>
-  </si>
-  <si>
-    <t>Invitrogen-Fisher</t>
-  </si>
-  <si>
-    <t>Anticorps anti alpha foeto proteine humaine </t>
-  </si>
-  <si>
-    <t>Fisher-Invitrogen</t>
-  </si>
-  <si>
-    <t>Boite de congélation</t>
-  </si>
-  <si>
-    <t>D. Duscher</t>
-  </si>
-  <si>
-    <t>Cell titer96 Aqeous</t>
-  </si>
-  <si>
-    <t>VWR</t>
-  </si>
-  <si>
-    <t>chloroforme</t>
-  </si>
-  <si>
-    <t>Anti Claudine 1 de lapin</t>
-  </si>
-  <si>
-    <t>Anticorps Ki67 de lapin </t>
-  </si>
-  <si>
-    <t>Ac anti claudine 11 Rabbit Pab</t>
-  </si>
-  <si>
-    <t>Ac anti Connexine 43 rabbit Pab</t>
-  </si>
-  <si>
-    <t>Anticorps MAb claudine 1 humain</t>
-  </si>
-  <si>
-    <t>Anticorps MAb occludine humain</t>
-  </si>
-  <si>
-    <t>Anticorps Mab GAPDH</t>
-  </si>
-  <si>
-    <t>Gibco</t>
-  </si>
-  <si>
-    <t>Etiquettes rondes Though-Spots JAUNE</t>
-  </si>
-  <si>
-    <t>Eppendorf 0,5ml</t>
-  </si>
-  <si>
-    <t>Eppendorf 1,5ml</t>
-  </si>
-  <si>
-    <t>Eppendorf 2ml</t>
-  </si>
-  <si>
-    <t>Eppendorf PCR clean 1,5mL</t>
-  </si>
-  <si>
-    <t>Film aluminium 33cm</t>
-  </si>
-  <si>
-    <t>Filtre 0,2µm stérile pour pipetman, cellulose acteta</t>
-  </si>
-  <si>
-    <t>Filtre 0,45µm stérile pour pipetman</t>
-  </si>
-  <si>
-    <t>Fischer</t>
-  </si>
-  <si>
-    <t>Bethyl Laboratories</t>
-  </si>
-  <si>
-    <t>Art molecule</t>
-  </si>
-  <si>
-    <t>Oxford Instruments</t>
-  </si>
-  <si>
-    <t>R&amp;D systems</t>
-  </si>
-  <si>
-    <t>Jaune lucifer dilithium</t>
-  </si>
-  <si>
-    <t>KIT ELISA QUANTITATION RAT ALBUMINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lame de verre 76x26 </t>
-  </si>
-  <si>
-    <t>Lamelle couvre objet 22x40</t>
-  </si>
-  <si>
-    <t>Lamelle pour cellules de Malassez</t>
-  </si>
-  <si>
-    <t>Micropipette eppendorf 0,5-10µl</t>
-  </si>
-  <si>
-    <t>Micropipette eppendorf 100-1000µl</t>
-  </si>
-  <si>
-    <t>Micropipette eppendorf 20-200µl</t>
-  </si>
-  <si>
-    <t>Microplaques 96puits en polypropylène Nunc noir</t>
-  </si>
-  <si>
-    <t>Multiflex round tips</t>
-  </si>
-  <si>
-    <t>Multiplex round tips sterile 1-200µl , 0.57 mm O.D for SDS page, lenght 83 mm</t>
-  </si>
-  <si>
-    <t>Omeprazole</t>
-  </si>
-  <si>
-    <t>PBS pH 7,2</t>
-  </si>
-  <si>
-    <t>Pipette 10mL</t>
-  </si>
-  <si>
-    <t>Pipette 1mL</t>
-  </si>
-  <si>
-    <t>Pipette 25mL</t>
-  </si>
-  <si>
-    <t>Pipette 2mL</t>
-  </si>
-  <si>
-    <t>Pipette 5mL</t>
-  </si>
-  <si>
-    <t>Plaque 12puits BD falcon</t>
-  </si>
-  <si>
-    <t>Plaque 48puits BD falcon</t>
-  </si>
-  <si>
-    <t>Plaque 6 puits BD falcon</t>
-  </si>
-  <si>
-    <t>Pointe blanche 10µl vrac</t>
-  </si>
-  <si>
-    <t>Pointe jaune 200µl vrac greiner</t>
-  </si>
-  <si>
-    <t>Pointe low</t>
-  </si>
-  <si>
-    <t>Pointe bleu 1000µl vrac greiner</t>
-  </si>
-  <si>
-    <t>Pointes 1-300 µl extra longue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portoir plaque </t>
-  </si>
-  <si>
-    <t>Portoir pour 80microtubes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portoir réversibles multiface </t>
-  </si>
-  <si>
-    <t>Raccord 1,6x2,3mm</t>
-  </si>
-  <si>
-    <t>Raccord en T</t>
-  </si>
-  <si>
-    <t>Raccord PP droit 1,6x1,6mm</t>
-  </si>
-  <si>
-    <t>Raccord PP mâle 10-30UNF 1,6mm</t>
-  </si>
-  <si>
-    <t>Ruban autoclave 50m/19mm</t>
-  </si>
-  <si>
-    <t>Scalpel/ bistouris stériles standard n°21</t>
-  </si>
-  <si>
-    <t>Scalpel/ bistouris stériles standard n°23</t>
-  </si>
-  <si>
-    <t>Seringue terumo  1 ml INSULINE</t>
-  </si>
-  <si>
-    <t>Seringue terumo  5mL</t>
-  </si>
-  <si>
-    <t>Single quote Bullet kit</t>
-  </si>
-  <si>
-    <t>Substrat tablet</t>
-  </si>
-  <si>
-    <t>Tamis 0,1mm</t>
-  </si>
-  <si>
-    <t>Tamis 0,3mm</t>
-  </si>
-  <si>
-    <t>Tamis 0,4mm</t>
-  </si>
-  <si>
-    <t>Tube PTFE 20m 0,8x1,6mm</t>
-  </si>
-  <si>
-    <t>Tube stock échantillons</t>
-  </si>
-  <si>
-    <t>Tuyau silicone (blanc-orange) 0,64mm</t>
-  </si>
-  <si>
-    <t>Tween 20%</t>
-  </si>
-  <si>
-    <t>Milieux de culture</t>
-  </si>
-  <si>
-    <t>Compléments Milieux de culture</t>
-  </si>
-  <si>
-    <t>Référence</t>
-  </si>
-  <si>
-    <t>Fournisseur</t>
-  </si>
-  <si>
-    <t>Barrette test elisa</t>
-  </si>
-  <si>
-    <r>
-      <t>Cone low binding 0.1 10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>µL</t>
-    </r>
-  </si>
-  <si>
-    <t>Cone low binding 10-1000µL</t>
-  </si>
-  <si>
-    <r>
-      <t>Cone low binding 1-200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>µL</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupleur Luer femelle </t>
-  </si>
-  <si>
-    <t>Filtre SFCA 0,2µm</t>
-  </si>
-  <si>
-    <t>Filtre SFCA 0,45µm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gant ecoshield latex T5-6 XS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gant ecoshield latex T6-7 S </t>
-  </si>
-  <si>
-    <t>Gant ecoshield latex T7-8 M</t>
-  </si>
-  <si>
-    <t>Gant ecoshield latex T8-9 L</t>
-  </si>
-  <si>
-    <t>Inserts polycarbonates plaque 6 puits</t>
-  </si>
-  <si>
-    <t>Lignée cellulaire HK-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masque 3plis vert </t>
-  </si>
-  <si>
-    <t>Pipetman</t>
-  </si>
-  <si>
-    <t>Boite de pétri  tissue culture 60x15mm BD Falcon</t>
-  </si>
-  <si>
-    <t>Godets échantillons 0.5ml Konelab</t>
-  </si>
-  <si>
-    <t>ThermoFisher scientific</t>
-  </si>
-  <si>
-    <t>Godets échantillons 2ml Konelab</t>
-  </si>
-  <si>
-    <t>Cuvettes Konelab</t>
-  </si>
-  <si>
-    <t>Solution lavage washing Konelab</t>
-  </si>
-  <si>
-    <t>4x20 ml</t>
-  </si>
-  <si>
-    <t>Kit dosage glucose GOD Konelab</t>
-  </si>
-  <si>
-    <t>12x20 ml</t>
-  </si>
-  <si>
-    <t>Kit dosage bilirubine NBD Konelab</t>
-  </si>
-  <si>
-    <t>4x20ml</t>
-  </si>
-  <si>
-    <t>Kit dosage bilirubine directe</t>
-  </si>
-  <si>
-    <t>Kit Scal Konelab</t>
-  </si>
-  <si>
-    <t>Kit Urée Konelab</t>
-  </si>
-  <si>
-    <t>Kit Glucose Konelab</t>
-  </si>
-  <si>
-    <t>D, Dutscher</t>
-  </si>
-  <si>
-    <t>Acuvette Coulter 20 ml</t>
-  </si>
-  <si>
-    <t>Ecrou Luer Lock : Luer femelle 1,6mm</t>
-  </si>
-  <si>
-    <t>Ecrou Luer PP : bouchon Luer mâle</t>
-  </si>
-  <si>
-    <t>Ecrou Luer PP : Luer femelle 10-32 UNF mâle 1,6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embout Luer mâle </t>
+    <t>single quote Bullet kit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2241,14 +2250,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2276,7 +2277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2292,12 +2293,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2598,282 +2593,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H336"/>
+  <dimension ref="A1:H335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="71" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>619</v>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>315</v>
+        <v>403</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2">
         <v>123897</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="2" t="s">
-        <v>616</v>
+        <v>349</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>374</v>
+        <v>471</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>375</v>
+        <v>472</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>376</v>
+        <v>473</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2">
         <v>123897</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>316</v>
+        <v>404</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2">
         <v>191752</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>535</v>
+      <c r="E7" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D8" s="2">
         <v>190276</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2">
         <v>31041</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="30">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>536</v>
+        <v>313</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>536</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>435</v>
+        <v>538</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="30">
       <c r="A13" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>551</v>
+        <v>655</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="A14" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>550</v>
+        <v>655</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>651</v>
+        <v>348</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C15" s="2">
         <v>1000</v>
@@ -2881,17 +2876,17 @@
       <c r="D15" s="2">
         <v>30034</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>538</v>
+      <c r="E15" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>537</v>
+      <c r="A16" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>446</v>
+        <v>549</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2899,390 +2894,390 @@
       <c r="D16" s="2">
         <v>78600</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>538</v>
+      <c r="E16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>539</v>
+        <v>348</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>26</v>
+        <v>161</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>524</v>
+        <v>641</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>334</v>
+        <v>424</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>525</v>
+        <v>642</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>414</v>
+        <v>513</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>415</v>
+        <v>514</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>532</v>
+      <c r="A21" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>156</v>
+      <c r="A22" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>26</v>
+        <v>185</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>416</v>
+        <v>515</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>616</v>
+        <v>349</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>538</v>
+        <v>357</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>616</v>
+        <v>349</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>406</v>
+        <v>505</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>407</v>
+        <v>506</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>408</v>
+        <v>507</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>532</v>
+        <v>655</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>457</v>
+        <v>565</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>458</v>
+        <v>566</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>540</v>
+        <v>567</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>541</v>
+        <v>655</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>463</v>
+        <v>572</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>464</v>
+        <v>573</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>532</v>
+        <v>655</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>454</v>
+        <v>562</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>455</v>
+        <v>563</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>542</v>
+        <v>564</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>549</v>
+        <v>655</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <v>710229</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>554</v>
+        <v>655</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>452</v>
+        <v>558</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>453</v>
+        <v>561</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>552</v>
+        <v>655</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>452</v>
+        <v>558</v>
       </c>
       <c r="D32" s="2">
         <v>374900</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>553</v>
+        <v>655</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>452</v>
+        <v>558</v>
       </c>
       <c r="D33" s="2">
         <v>331500</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>439</v>
+        <v>542</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>440</v>
+        <v>543</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>620</v>
+        <v>348</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="C38" s="2">
         <v>320</v>
@@ -3290,161 +3285,161 @@
       <c r="D38" s="2">
         <v>55161</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>538</v>
+      <c r="E38" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="D40" s="2">
         <v>354234</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="30">
       <c r="A41" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>356234</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>460</v>
+        <v>568</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>356237</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2">
         <v>24122</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="30">
       <c r="A44" s="2" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D44" s="2">
         <v>8985726</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="30">
       <c r="A45" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>368</v>
+        <v>464</v>
       </c>
       <c r="D45" s="2">
         <v>981892</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>369</v>
+        <v>465</v>
       </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>501</v>
+        <v>617</v>
       </c>
       <c r="C47" s="2">
         <v>6</v>
@@ -3453,52 +3448,52 @@
         <v>11733833</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>465</v>
+        <v>575</v>
       </c>
       <c r="C48" s="2">
         <v>5</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>544</v>
+        <v>576</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="30">
       <c r="A49" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>543</v>
+        <v>348</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="D49" s="2">
         <v>10184</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>538</v>
+      <c r="E49" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>635</v>
+        <v>348</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C50" s="2">
         <v>500</v>
@@ -3507,70 +3502,70 @@
         <v>353004</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D51" s="2">
         <v>639101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="D52" s="2">
         <v>633185</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>448</v>
+        <v>551</v>
       </c>
       <c r="C54" s="2">
         <v>100</v>
@@ -3579,79 +3574,79 @@
         <v>48931</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="30">
       <c r="A56" s="2" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="30">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F58" s="2">
         <v>1</v>
@@ -3659,62 +3654,62 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="C59" s="2">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>650</v>
+        <v>500</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>532</v>
+        <v>655</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>431</v>
+        <v>533</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>432</v>
+        <v>534</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>433</v>
+        <v>535</v>
       </c>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>277</v>
+        <v>362</v>
       </c>
       <c r="C62" s="2">
         <v>50</v>
@@ -3723,16 +3718,16 @@
         <v>352360</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="C63" s="2">
         <v>50</v>
@@ -3741,158 +3736,158 @@
         <v>352350</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>545</v>
+        <v>346</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>359</v>
+        <v>453</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>46</v>
+        <v>454</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>546</v>
+        <v>166</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>547</v>
+        <v>351</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2">
         <v>650498</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>7</v>
+      <c r="E66" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>548</v>
+        <v>655</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="30">
       <c r="A68" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D68" s="2">
         <v>354249</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" ht="30">
       <c r="A69" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D69" s="2">
         <v>354236</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="30">
       <c r="A71" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="D71" s="2">
         <v>30233</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>281</v>
+        <v>366</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -3901,106 +3896,106 @@
         <v>45321</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>621</v>
+        <v>348</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="C73" s="2">
         <v>960</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>467</v>
+        <v>579</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>622</v>
+        <v>348</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="C74" s="2">
         <v>1000</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>468</v>
+        <v>581</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>623</v>
+        <v>348</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="C75" s="2">
         <v>960</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>469</v>
+        <v>583</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="C78" s="2">
         <v>2000</v>
@@ -4009,16 +4004,16 @@
         <v>20310</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>470</v>
+        <v>584</v>
       </c>
       <c r="C79" s="2">
         <v>50</v>
@@ -4027,16 +4022,16 @@
         <v>45370</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>624</v>
+        <v>348</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="C80" s="2">
         <v>25</v>
@@ -4044,369 +4039,369 @@
       <c r="D80" s="2">
         <v>95963</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>26</v>
+      <c r="E80" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="C81" s="2">
         <v>50</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D82" s="2">
         <v>139066</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" ht="30">
       <c r="A83" s="2" t="s">
-        <v>532</v>
+        <v>655</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>419</v>
+        <v>518</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>420</v>
+        <v>519</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>421</v>
+        <v>520</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" ht="30">
       <c r="A86" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>412</v>
+        <v>511</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>7</v>
+        <v>512</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>334</v>
+        <v>424</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>335</v>
+        <v>425</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A89" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" s="2">
         <v>354235</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>616</v>
+        <v>349</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>616</v>
+        <v>349</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>449</v>
+        <v>552</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>616</v>
+        <v>349</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>372</v>
+        <v>468</v>
       </c>
       <c r="C92" s="2">
         <v>500</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>555</v>
+        <v>469</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>616</v>
+        <v>349</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>531</v>
+        <v>654</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>398</v>
+        <v>497</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>399</v>
+        <v>498</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
-        <v>616</v>
+        <v>349</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>538</v>
+        <v>265</v>
       </c>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
-        <v>616</v>
+        <v>349</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>443</v>
+        <v>546</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>444</v>
+        <v>547</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" ht="45">
       <c r="A96" s="2" t="s">
-        <v>616</v>
+        <v>349</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>436</v>
+        <v>539</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>437</v>
+        <v>540</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>438</v>
+        <v>541</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>535</v>
+        <v>318</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" ht="30">
       <c r="A99" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>381</v>
+        <v>479</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>363</v>
+        <v>458</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>364</v>
+        <v>459</v>
       </c>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>382</v>
+        <v>480</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>652</v>
+        <v>348</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="C101" s="2">
         <v>25</v>
@@ -4414,89 +4409,89 @@
       <c r="D101" s="2">
         <v>95960</v>
       </c>
-      <c r="E101" s="6" t="s">
-        <v>26</v>
+      <c r="E101" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>653</v>
+        <v>348</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C102" s="2">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>26</v>
+        <v>252</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>654</v>
+        <v>348</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="C103" s="2">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>26</v>
+        <v>253</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>336</v>
+        <v>426</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>337</v>
+        <v>427</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>338</v>
+        <v>428</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>339</v>
+        <v>429</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>341</v>
+        <v>431</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="C106" s="2">
         <v>100</v>
@@ -4505,34 +4500,34 @@
         <v>50101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>655</v>
+        <v>348</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="C107" s="2">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>26</v>
+        <v>258</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" customFormat="1">
       <c r="A108" s="2" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="C108" s="2">
         <v>5</v>
@@ -4541,16 +4536,16 @@
         <v>391445</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>557</v>
+        <v>348</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C109" s="2">
         <v>500</v>
@@ -4559,16 +4554,16 @@
         <v>33283</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>558</v>
+        <v>348</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C110" s="2">
         <v>1000</v>
@@ -4577,16 +4572,16 @@
         <v>33511</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>559</v>
+        <v>348</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C111" s="2">
         <v>1000</v>
@@ -4595,16 +4590,16 @@
         <v>33297</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>560</v>
+        <v>348</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C112" s="2">
         <v>1000</v>
@@ -4613,16 +4608,16 @@
         <v>33508</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>384</v>
+        <v>482</v>
       </c>
       <c r="C113" s="2">
         <v>10</v>
@@ -4631,34 +4626,34 @@
         <v>211915</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>509</v>
+        <v>625</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>510</v>
+        <v>626</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>408</v>
+        <v>507</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="C115" s="2">
         <v>1000</v>
@@ -4667,16 +4662,16 @@
         <v>53058</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>556</v>
+        <v>348</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C116" s="2">
         <v>1</v>
@@ -4685,16 +4680,16 @@
         <v>53059</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>538</v>
+        <v>322</v>
       </c>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C117" s="2">
         <v>1000</v>
@@ -4703,16 +4698,16 @@
         <v>188271</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C118" s="2">
         <v>300</v>
@@ -4721,88 +4716,88 @@
         <v>227270</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:8" ht="30">
       <c r="A119" s="2" t="s">
-        <v>617</v>
+        <v>352</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:8" ht="30">
       <c r="A120" s="2" t="s">
-        <v>617</v>
+        <v>352</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>26</v>
+        <v>237</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>471</v>
+        <v>585</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>472</v>
+        <v>586</v>
       </c>
       <c r="D121" s="2">
         <v>2907</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D122" s="2">
         <v>110514070001</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>561</v>
+        <v>348</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C123" s="2">
         <v>1</v>
@@ -4811,34 +4806,34 @@
         <v>39444</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:8" ht="27" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>562</v>
+        <v>348</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="C124" s="2">
         <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>546</v>
+        <v>312</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>563</v>
+        <v>348</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C125" s="2">
         <v>1</v>
@@ -4847,7 +4842,7 @@
         <v>4912</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="4"/>
@@ -4855,10 +4850,10 @@
     </row>
     <row r="126" spans="1:8" ht="30">
       <c r="A126" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="C126" s="2">
         <v>50</v>
@@ -4867,86 +4862,86 @@
         <v>51366</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>473</v>
+        <v>587</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>474</v>
+        <v>588</v>
       </c>
       <c r="D127" s="2">
         <v>53473</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>451</v>
+        <v>135</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>625</v>
+        <v>348</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>451</v>
+        <v>141</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>626</v>
+        <v>348</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>451</v>
+        <v>139</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>289</v>
+        <v>374</v>
       </c>
       <c r="C131" s="2">
         <v>50</v>
@@ -4955,16 +4950,16 @@
         <v>51366</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>290</v>
+        <v>375</v>
       </c>
       <c r="C132" s="2">
         <v>50</v>
@@ -4973,16 +4968,16 @@
         <v>51430</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="C133" s="2">
         <v>50</v>
@@ -4991,16 +4986,16 @@
         <v>51350</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>292</v>
+        <v>377</v>
       </c>
       <c r="C134" s="2">
         <v>50</v>
@@ -5009,16 +5004,16 @@
         <v>51339</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>475</v>
+        <v>589</v>
       </c>
       <c r="C135" s="2">
         <v>1715</v>
@@ -5027,16 +5022,16 @@
         <v>440220</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>476</v>
+        <v>590</v>
       </c>
       <c r="C136" s="2">
         <v>10</v>
@@ -5045,70 +5040,70 @@
         <v>90300</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>404</v>
+        <v>503</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>405</v>
+        <v>504</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>342</v>
+        <v>432</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>627</v>
+        <v>348</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C140" s="2">
         <v>150</v>
@@ -5117,16 +5112,16 @@
         <v>65740</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>628</v>
+        <v>348</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C141" s="2">
         <v>150</v>
@@ -5135,16 +5130,16 @@
         <v>65741</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>629</v>
+        <v>348</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="C142" s="2">
         <v>150</v>
@@ -5153,16 +5148,16 @@
         <v>65742</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>630</v>
+        <v>348</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="C143" s="2">
         <v>150</v>
@@ -5171,16 +5166,16 @@
         <v>65743</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>477</v>
+        <v>591</v>
       </c>
       <c r="C144" s="2">
         <v>100</v>
@@ -5189,3434 +5184,3395 @@
         <v>65738</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>26</v>
+        <v>145</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" ht="30">
+    <row r="147" spans="1:6">
       <c r="A147" s="2" t="s">
-        <v>617</v>
+        <v>351</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>293</v>
+        <v>378</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" ht="30">
-      <c r="A148" s="2" t="s">
-        <v>268</v>
-      </c>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
-        <v>100</v>
+        <v>378</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>567</v>
+        <v>379</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" ht="30">
       <c r="A149" s="2" t="s">
-        <v>532</v>
+        <v>351</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2">
+        <v>109</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" ht="30">
+      <c r="A150" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2">
         <v>55028</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C150" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>564</v>
+      <c r="E150" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>120</v>
+        <v>308</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1000</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>564</v>
+        <v>309</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C152" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D152" s="2" t="s">
-        <v>378</v>
+        <v>266</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>376</v>
+        <v>129</v>
       </c>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
-        <v>532</v>
+        <v>346</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>428</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
-        <v>616</v>
+        <v>655</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>262</v>
+        <v>529</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>203</v>
+        <v>530</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>259</v>
+        <v>531</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>26</v>
+        <v>532</v>
       </c>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
-        <v>616</v>
+        <v>349</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>214</v>
+        <v>343</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>206</v>
+        <v>340</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" ht="30">
+    <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
-        <v>164</v>
+        <v>351</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C157" s="2">
+        <v>434</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" ht="30">
+      <c r="A158" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C158" s="2">
         <v>1</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F157" s="2"/>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="D158" s="2" t="s">
-        <v>462</v>
+        <v>195</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>376</v>
+        <v>196</v>
       </c>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D159" s="2">
-        <v>14533</v>
+        <v>271</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>565</v>
+        <v>87</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D160" s="2">
+        <v>14533</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" ht="30">
       <c r="A161" s="2" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>379</v>
+        <v>460</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>568</v>
+        <v>461</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
-        <v>65</v>
+        <v>346</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>7</v>
+        <v>478</v>
       </c>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>68</v>
+        <v>516</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>70</v>
+        <v>517</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>522</v>
+        <v>76</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>523</v>
+        <v>78</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C165" s="2">
-        <v>48</v>
-      </c>
-      <c r="D165" s="2">
-        <v>353090</v>
+        <v>639</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>640</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>385</v>
+        <v>484</v>
       </c>
       <c r="C166" s="2">
         <v>48</v>
       </c>
       <c r="D166" s="2">
-        <v>353180</v>
+        <v>353090</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C167" s="2">
+        <v>48</v>
+      </c>
+      <c r="D167" s="2">
+        <v>353180</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="6" t="s">
-        <v>65</v>
+      <c r="A168" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>111</v>
+        <v>437</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>87</v>
+        <v>344</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>112</v>
+        <v>438</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D169" s="2">
+        <v>95</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D170" s="2">
         <v>8448011</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:6" ht="30">
-      <c r="A170" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D170" s="2">
+      <c r="E170" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:6" ht="30">
+      <c r="A171" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D171" s="2">
         <v>354352</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C172" s="2">
-        <v>6</v>
-      </c>
-      <c r="D172" s="2">
-        <v>11839100</v>
+        <v>306</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>570</v>
+        <v>347</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>618</v>
       </c>
       <c r="C173" s="2">
-        <v>1</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>565</v>
+        <v>6</v>
+      </c>
+      <c r="D173" s="2">
+        <v>11839100</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D174" s="2">
-        <v>981780</v>
+        <v>346</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C175" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C175" s="2">
+        <v>1</v>
+      </c>
       <c r="D175" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>647</v>
+        <v>346</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>649</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>529</v>
+        <v>648</v>
       </c>
       <c r="D176" s="2">
-        <v>981831</v>
+        <v>981780</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D177" s="2">
-        <v>981820</v>
+        <v>346</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>637</v>
+        <v>134</v>
       </c>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
-        <v>65</v>
+        <v>346</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>348</v>
+        <v>650</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>349</v>
+        <v>651</v>
+      </c>
+      <c r="D178" s="2">
+        <v>981831</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>7</v>
+        <v>652</v>
       </c>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
-        <v>65</v>
+        <v>346</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>350</v>
+        <v>647</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>351</v>
+        <v>648</v>
+      </c>
+      <c r="D179" s="2">
+        <v>981820</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>7</v>
+        <v>652</v>
       </c>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C180" s="2">
-        <v>8</v>
-      </c>
-      <c r="D180" s="2">
-        <v>55071</v>
+        <v>439</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C181" s="2">
-        <v>8</v>
-      </c>
-      <c r="D181" s="2">
-        <v>55082</v>
+        <v>441</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>158</v>
+        <v>380</v>
       </c>
       <c r="C182" s="2">
         <v>8</v>
       </c>
       <c r="D182" s="2">
-        <v>55083</v>
+        <v>55071</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>571</v>
+        <v>348</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C183" s="2">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D183" s="2">
-        <v>100000</v>
+        <v>55082</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>526</v>
+        <v>187</v>
       </c>
       <c r="C184" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D184" s="2">
-        <v>75800301</v>
+        <v>55083</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>527</v>
+        <v>71</v>
       </c>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>500</v>
+        <v>181</v>
+      </c>
+      <c r="C185" s="2">
+        <v>50</v>
       </c>
       <c r="D185" s="2">
-        <v>45796</v>
+        <v>100000</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>572</v>
+        <v>348</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>643</v>
       </c>
       <c r="C186" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D186" s="2">
-        <v>100046</v>
+        <v>75800301</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>538</v>
+        <v>644</v>
       </c>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C187" s="2">
-        <v>10</v>
+        <v>348</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="D187" s="2">
-        <v>140537</v>
+        <v>45796</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="C188" s="2">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D188" s="2">
-        <v>100204</v>
+        <v>100046</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
-        <v>616</v>
+        <v>348</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>298</v>
+        <v>489</v>
+      </c>
+      <c r="C189" s="2">
+        <v>10</v>
+      </c>
+      <c r="D189" s="2">
+        <v>140537</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>538</v>
+        <v>265</v>
       </c>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="1:6" ht="30">
+    <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
-        <v>617</v>
+        <v>348</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>26</v>
+        <v>381</v>
+      </c>
+      <c r="C190" s="2">
+        <v>50</v>
+      </c>
+      <c r="D190" s="2">
+        <v>100204</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="C191" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="D191" s="2" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>423</v>
+        <v>71</v>
       </c>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
-        <v>616</v>
+        <v>352</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
-        <v>616</v>
+        <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="C193" s="2"/>
       <c r="D193" s="2" t="s">
-        <v>258</v>
+        <v>522</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>26</v>
+        <v>523</v>
       </c>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C195" s="2">
-        <v>8</v>
-      </c>
-      <c r="D195" s="2">
-        <v>59114</v>
+        <v>342</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>538</v>
+        <v>30</v>
       </c>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="C196" s="2">
-        <v>50</v>
-      </c>
-      <c r="D196" s="2">
-        <v>30619</v>
+        <v>353</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:6" ht="30">
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="C197" s="2">
-        <v>1</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>169</v>
+        <v>8</v>
+      </c>
+      <c r="D197" s="2">
+        <v>59114</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
-        <v>616</v>
+        <v>348</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
+      </c>
+      <c r="C198" s="2">
+        <v>50</v>
+      </c>
+      <c r="D198" s="2">
+        <v>30619</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" ht="30">
       <c r="A199" s="2" t="s">
-        <v>616</v>
+        <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>119</v>
+        <v>197</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>26</v>
+        <v>198</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="2" t="s">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>514</v>
+        <v>277</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D200" s="2">
-        <v>322415</v>
+        <v>131</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6" ht="30">
+    <row r="201" spans="1:6">
       <c r="A201" s="2" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D201" s="2">
-        <v>8985707</v>
+        <v>130</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
-        <v>65</v>
+        <v>351</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D202" s="2">
+        <v>322415</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D203" s="2">
+        <v>322415</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="1:6" ht="30">
+      <c r="A204" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D204" s="2">
+        <v>8985707</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D205" s="2">
         <v>188212</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F202" s="2"/>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="C203" s="2">
+      <c r="E205" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C206" s="2">
         <v>1</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D206" s="2">
         <v>33018</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F203" s="2"/>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C204" s="2">
+      <c r="E206" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C207" s="2">
         <v>1</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D207" s="2">
         <v>33006</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F204" s="2"/>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C205" s="2">
+      <c r="E207" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C208" s="2">
         <v>1</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D208" s="2">
         <v>33005</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F205" s="2"/>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F206" s="2"/>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F207" s="2"/>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="E208" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="6" t="s">
-        <v>537</v>
+      <c r="A209" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>484</v>
+        <v>592</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2" t="s">
-        <v>485</v>
+        <v>593</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C210" s="2">
-        <v>1</v>
-      </c>
-      <c r="D210" s="2">
-        <v>54311</v>
+        <v>594</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B211" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C211" s="2">
-        <v>120</v>
-      </c>
-      <c r="D211" s="2">
-        <v>54312</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C212" s="2">
-        <v>500</v>
-      </c>
-      <c r="D212" s="2">
-        <v>840614</v>
+        <v>598</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="6" t="s">
-        <v>537</v>
+      <c r="A213" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>447</v>
+        <v>317</v>
       </c>
       <c r="C213" s="2">
         <v>1</v>
       </c>
       <c r="D213" s="2">
-        <v>96566</v>
+        <v>54311</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>538</v>
+        <v>322</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="C214" s="2">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="D214" s="2">
-        <v>5561</v>
+        <v>54312</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="C215" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C215" s="2">
+        <v>500</v>
+      </c>
       <c r="D215" s="2">
-        <v>13810</v>
+        <v>840614</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>252</v>
+        <v>347</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C216" s="2">
+        <v>1</v>
       </c>
       <c r="D216" s="2">
-        <v>13810</v>
+        <v>96566</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6" ht="30">
+    <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
-        <v>617</v>
+        <v>348</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>26</v>
+        <v>218</v>
+      </c>
+      <c r="C217" s="2">
+        <v>320</v>
+      </c>
+      <c r="D217" s="2">
+        <v>5561</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>224</v>
+        <v>385</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2">
+        <v>13810</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>61</v>
+        <v>333</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>225</v>
+        <v>331</v>
+      </c>
+      <c r="D219" s="2">
+        <v>13810</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>63</v>
+        <v>332</v>
       </c>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>580</v>
+        <v>352</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E220" s="6" t="s">
-        <v>566</v>
+        <v>234</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="6" t="s">
-        <v>537</v>
+      <c r="A221" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C221" s="2">
-        <v>1</v>
-      </c>
-      <c r="D221" s="2">
-        <v>11641449</v>
+        <v>304</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>451</v>
+        <v>70</v>
       </c>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C222" s="2">
-        <v>4</v>
-      </c>
-      <c r="D222" s="2">
-        <v>39601</v>
+        <v>68</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>538</v>
+        <v>70</v>
       </c>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C223" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D223" s="2">
-        <v>74041</v>
+        <v>524</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="1:6" ht="30">
+    <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>96</v>
+        <v>553</v>
+      </c>
+      <c r="C224" s="2">
+        <v>1</v>
+      </c>
+      <c r="D224" s="2">
+        <v>11641449</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>97</v>
+        <v>554</v>
       </c>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>26</v>
+        <v>494</v>
+      </c>
+      <c r="C225" s="2">
+        <v>4</v>
+      </c>
+      <c r="D225" s="2">
+        <v>39601</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>202</v>
+        <v>348</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D226" s="2">
+        <v>74041</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" ht="30">
       <c r="A227" s="2" t="s">
-        <v>617</v>
+        <v>351</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>26</v>
+        <v>105</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D228" s="2">
-        <v>5527801</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>546</v>
+      <c r="E228" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="2" t="s">
-        <v>65</v>
+        <v>351</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D229" s="2">
-        <v>45614</v>
+        <v>131</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="2" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C230" s="2">
-        <v>10</v>
+        <v>288</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>487</v>
+        <v>239</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>538</v>
+        <v>129</v>
       </c>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="2" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C231" s="2">
-        <v>10</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>488</v>
+        <v>162</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D231" s="2">
+        <v>5527801</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>538</v>
+        <v>163</v>
       </c>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="C232" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>73</v>
+      <c r="D232" s="2">
+        <v>45614</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="2" t="s">
-        <v>65</v>
+        <v>348</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>50</v>
+        <v>656</v>
+      </c>
+      <c r="C233" s="2">
+        <v>10</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>88</v>
+        <v>601</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="2" t="s">
-        <v>65</v>
+        <v>348</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>50</v>
+        <v>657</v>
+      </c>
+      <c r="C234" s="2">
+        <v>10</v>
       </c>
       <c r="D234" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E234" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F234" s="2"/>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C235" s="2">
-        <v>1</v>
-      </c>
-      <c r="D235" s="2">
-        <v>446302</v>
+      <c r="C235" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="6" t="s">
-        <v>537</v>
+      <c r="A236" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C236" s="2">
-        <v>1</v>
-      </c>
-      <c r="D236" s="2">
-        <v>446304</v>
+        <v>56</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C237" s="2">
-        <v>1</v>
-      </c>
-      <c r="D237" s="2">
-        <v>60209</v>
+      <c r="A237" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="6" t="s">
-        <v>537</v>
+      <c r="A238" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>301</v>
+        <v>491</v>
       </c>
       <c r="C238" s="2">
         <v>1</v>
       </c>
       <c r="D238" s="2">
-        <v>70068</v>
+        <v>446302</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>582</v>
+        <v>348</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="C239" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D239" s="2">
-        <v>357551</v>
+        <v>446304</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>583</v>
+        <v>348</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="C240" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D240" s="2">
-        <v>357521</v>
+        <v>60209</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>584</v>
+        <v>348</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="C241" s="2">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D241" s="2">
-        <v>357535</v>
+        <v>70068</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>585</v>
+        <v>348</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C242" s="2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D242" s="2">
-        <v>357507</v>
+        <v>357551</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>586</v>
+        <v>348</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C243" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D243" s="2">
-        <v>357543</v>
+        <v>357521</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="C244" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>394</v>
+        <v>200</v>
+      </c>
+      <c r="D244" s="2">
+        <v>357535</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>489</v>
+        <v>214</v>
       </c>
       <c r="C245" s="2">
-        <v>1</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>490</v>
+        <v>1000</v>
+      </c>
+      <c r="D245" s="2">
+        <v>357507</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>491</v>
+        <v>215</v>
       </c>
       <c r="C246" s="2">
-        <v>1</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>492</v>
+        <v>200</v>
+      </c>
+      <c r="D246" s="2">
+        <v>357543</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C247" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C247" s="2">
-        <v>1</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="E247" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>587</v>
+        <v>348</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="C248" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>546</v>
+        <v>604</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>587</v>
+        <v>348</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="C249" s="2">
-        <v>50</v>
-      </c>
-      <c r="D249" s="2">
-        <v>353043</v>
+        <v>1</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>588</v>
+        <v>348</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="C250" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E250" s="6" t="s">
-        <v>546</v>
+        <v>608</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>589</v>
+        <v>348</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C251" s="2">
         <v>50</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>546</v>
+        <v>172</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>589</v>
+        <v>348</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C252" s="2">
         <v>50</v>
       </c>
       <c r="D252" s="2">
-        <v>353046</v>
+        <v>353043</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>538</v>
+        <v>265</v>
       </c>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="C253" s="2">
-        <v>100</v>
-      </c>
-      <c r="D253" s="2">
-        <v>43456</v>
+        <v>50</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>538</v>
+        <v>163</v>
       </c>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="C254" s="2">
         <v>50</v>
       </c>
-      <c r="D254" s="2">
-        <v>55260</v>
+      <c r="D254" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>538</v>
+        <v>163</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="C255" s="2">
         <v>50</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E255" s="6" t="s">
-        <v>546</v>
+      <c r="D255" s="2">
+        <v>353046</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C256" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D256" s="2">
-        <v>55048</v>
+        <v>43456</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>371</v>
+        <v>71</v>
       </c>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>590</v>
+        <v>348</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="C257" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>175</v>
+        <v>50</v>
+      </c>
+      <c r="D257" s="2">
+        <v>55260</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>538</v>
+        <v>265</v>
       </c>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>593</v>
+        <v>348</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C258" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>538</v>
+        <v>163</v>
       </c>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>227</v>
+        <v>466</v>
       </c>
       <c r="C259" s="2">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="D259" s="2">
-        <v>77170</v>
+        <v>55048</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>538</v>
+        <v>467</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>591</v>
+        <v>348</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C260" s="2">
-        <v>500</v>
-      </c>
-      <c r="D260" s="2">
-        <v>700000</v>
+        <v>1000</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>592</v>
+        <v>348</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C261" s="2">
-        <v>2</v>
-      </c>
-      <c r="D261" s="2">
-        <v>949424</v>
+        <v>500</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>592</v>
+        <v>348</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="C262" s="2">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="D262" s="2">
-        <v>949426</v>
+        <v>77170</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>594</v>
+        <v>348</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C263" s="2">
-        <v>38</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>303</v>
+        <v>500</v>
+      </c>
+      <c r="D263" s="2">
+        <v>700000</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="2" t="s">
-        <v>65</v>
+        <v>348</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E264" s="6" t="s">
-        <v>7</v>
+        <v>389</v>
+      </c>
+      <c r="C264" s="2">
+        <v>2</v>
+      </c>
+      <c r="D264" s="2">
+        <v>949424</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="2" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>495</v>
+        <v>389</v>
       </c>
       <c r="C265" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D265" s="2">
-        <v>250084</v>
+        <v>949426</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="2" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>495</v>
+        <v>390</v>
       </c>
       <c r="C266" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E266" s="6" t="s">
-        <v>26</v>
+        <v>391</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="2" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C267" s="2">
-        <v>1</v>
-      </c>
-      <c r="D267" s="2">
-        <v>250083</v>
+        <v>443</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>538</v>
+        <v>134</v>
       </c>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>595</v>
+        <v>347</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="C268" s="2">
         <v>1</v>
       </c>
       <c r="D268" s="2">
-        <v>3426400</v>
+        <v>250084</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>596</v>
+        <v>347</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="C269" s="2">
         <v>1</v>
       </c>
-      <c r="D269" s="2">
-        <v>840523</v>
+      <c r="D269" s="2" t="s">
+        <v>619</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>538</v>
+        <v>129</v>
       </c>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>597</v>
+        <v>347</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="C270" s="2">
         <v>1</v>
       </c>
       <c r="D270" s="2">
-        <v>37563</v>
+        <v>250083</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="2" t="s">
-        <v>532</v>
+        <v>347</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>506</v>
+        <v>611</v>
+      </c>
+      <c r="C271" s="2">
+        <v>1</v>
+      </c>
+      <c r="D271" s="2">
+        <v>3426400</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="2" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>104</v>
+        <v>244</v>
+      </c>
+      <c r="C272" s="2">
+        <v>1</v>
+      </c>
+      <c r="D272" s="2">
+        <v>840523</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="2" t="s">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E273" s="6" t="s">
-        <v>7</v>
+        <v>245</v>
+      </c>
+      <c r="C273" s="2">
+        <v>1</v>
+      </c>
+      <c r="D273" s="2">
+        <v>37563</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="2" t="s">
-        <v>267</v>
+        <v>655</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C274" s="2">
-        <v>1</v>
-      </c>
-      <c r="D274" s="2">
-        <v>30732</v>
+        <v>620</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="2" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C275" s="2">
-        <v>1</v>
-      </c>
-      <c r="D275" s="2">
-        <v>30740</v>
+        <v>112</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="2" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>232</v>
+        <v>445</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>233</v>
+        <v>446</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>234</v>
+        <v>447</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E277" s="6" t="s">
-        <v>26</v>
+        <v>392</v>
+      </c>
+      <c r="C277" s="2">
+        <v>1</v>
+      </c>
+      <c r="D277" s="2">
+        <v>30732</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E278" s="6" t="s">
-        <v>26</v>
+        <v>348</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C278" s="2">
+        <v>1</v>
+      </c>
+      <c r="D278" s="2">
+        <v>30740</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>599</v>
+        <v>346</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E279" s="6" t="s">
-        <v>26</v>
+        <v>302</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="C280" s="2">
-        <v>25</v>
+        <v>348</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E280" s="6" t="s">
-        <v>26</v>
+        <v>249</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="C281" s="2">
-        <v>25</v>
+        <v>348</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E281" s="6" t="s">
-        <v>26</v>
+        <v>153</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C282" s="2">
-        <v>10</v>
-      </c>
-      <c r="D282" s="2">
-        <v>34102</v>
+        <v>151</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>538</v>
+        <v>129</v>
       </c>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="2" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>84</v>
+        <v>256</v>
+      </c>
+      <c r="C283" s="2">
+        <v>25</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E283" s="6" t="s">
-        <v>7</v>
+        <v>249</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="2" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>84</v>
+        <v>259</v>
+      </c>
+      <c r="C284" s="2">
+        <v>25</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E284" s="6" t="s">
-        <v>7</v>
+        <v>261</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="2" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>442</v>
+        <v>394</v>
+      </c>
+      <c r="C285" s="2">
+        <v>10</v>
       </c>
       <c r="D285" s="2">
-        <v>15260241</v>
-      </c>
-      <c r="E285" s="6" t="s">
-        <v>26</v>
+        <v>34102</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="2" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C286" s="2">
-        <v>1</v>
-      </c>
-      <c r="D286" s="2">
-        <v>39405</v>
+        <v>298</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>538</v>
+        <v>134</v>
       </c>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="C287" s="2">
-        <v>1</v>
-      </c>
-      <c r="D287" s="2">
-        <v>150260</v>
+        <v>353</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C288" s="2">
-        <v>1000</v>
+        <v>544</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="D288" s="2">
-        <v>140218</v>
+        <v>15260241</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>538</v>
+        <v>129</v>
       </c>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>603</v>
+        <v>348</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="C289" s="2">
-        <v>10</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>179</v>
+        <v>1</v>
+      </c>
+      <c r="D289" s="2">
+        <v>39405</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>604</v>
+        <v>348</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C290" s="2">
-        <v>10</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>180</v>
+        <v>1</v>
+      </c>
+      <c r="D290" s="2">
+        <v>150260</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>133</v>
+        <v>348</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C291" s="2">
+        <v>1000</v>
       </c>
       <c r="D291" s="2">
-        <v>50000</v>
+        <v>140218</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D292" s="2">
-        <v>50006</v>
+        <v>348</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C292" s="2">
+        <v>10</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D293" s="2">
-        <v>50008</v>
+        <v>228</v>
+      </c>
+      <c r="C293" s="2">
+        <v>10</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="D294" s="2">
-        <v>50010</v>
+        <v>50000</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>538</v>
+        <v>265</v>
       </c>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="D295" s="2">
-        <v>50017</v>
+        <v>50006</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="2" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>388</v>
+        <v>201</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="D296" s="2">
-        <v>500125</v>
+        <v>50008</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="2" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>389</v>
+        <v>202</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="D297" s="2">
-        <v>500105</v>
+        <v>50010</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="2" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>357</v>
+        <v>397</v>
+      </c>
+      <c r="D298" s="2">
+        <v>50017</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="2" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>517</v>
+        <v>116</v>
+      </c>
+      <c r="D299" s="2">
+        <v>500125</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2" t="s">
-        <v>378</v>
+        <v>351</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D300" s="2">
+        <v>500105</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>376</v>
+        <v>71</v>
       </c>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="1:6" ht="30">
+    <row r="301" spans="1:6">
       <c r="A301" s="2" t="s">
-        <v>617</v>
+        <v>351</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>215</v>
+        <v>481</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E301" s="6" t="s">
-        <v>26</v>
+        <v>448</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="2" t="s">
-        <v>266</v>
+        <v>351</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C302" s="2">
-        <v>1</v>
-      </c>
-      <c r="D302" s="2">
-        <v>76535</v>
+        <v>632</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>633</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="2" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D303" s="2">
-        <v>48559</v>
+        <v>658</v>
+      </c>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>538</v>
+        <v>473</v>
       </c>
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="2" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C304" s="2">
-        <v>12</v>
-      </c>
-      <c r="D304" s="2">
-        <v>51267</v>
+        <v>283</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>538</v>
+        <v>129</v>
       </c>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="2" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>311</v>
+        <v>613</v>
       </c>
       <c r="C305" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D305" s="2">
-        <v>51806</v>
+        <v>76535</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="C306" s="2">
-        <v>100</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>521</v>
+        <v>347</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D306" s="2">
+        <v>48559</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="2" t="s">
-        <v>65</v>
+        <v>348</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>513</v>
+        <v>398</v>
+      </c>
+      <c r="C307" s="2">
+        <v>12</v>
+      </c>
+      <c r="D307" s="2">
+        <v>51267</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="2" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>163</v>
+        <v>399</v>
       </c>
       <c r="C308" s="2">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D308" s="2">
-        <v>353109</v>
+        <v>51806</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>162</v>
+        <v>637</v>
       </c>
       <c r="C309" s="2">
-        <v>60</v>
-      </c>
-      <c r="D309" s="2">
-        <v>353136</v>
+        <v>100</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="C310" s="2">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E310" s="6" t="s">
-        <v>26</v>
+        <v>629</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>610</v>
+        <v>348</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C311" s="2">
-        <v>1</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E311" s="6" t="s">
-        <v>26</v>
+        <v>100</v>
+      </c>
+      <c r="D311" s="2">
+        <v>353109</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>611</v>
+        <v>348</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C312" s="2">
-        <v>1</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E312" s="6" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="D312" s="2">
+        <v>353136</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="2" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>402</v>
+        <v>154</v>
       </c>
       <c r="C313" s="2">
         <v>1</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>403</v>
+        <v>155</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>538</v>
+        <v>129</v>
       </c>
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="2" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="C314" s="2">
         <v>1</v>
       </c>
-      <c r="D314" s="2">
-        <v>95319</v>
+      <c r="D314" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>538</v>
+        <v>129</v>
       </c>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="2" t="s">
-        <v>65</v>
+        <v>348</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D315" s="2">
-        <v>87917</v>
+        <v>158</v>
+      </c>
+      <c r="C315" s="2">
+        <v>1</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="2" t="s">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>519</v>
+        <v>501</v>
+      </c>
+      <c r="C316" s="2">
+        <v>1</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="2" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E317" s="6" t="s">
-        <v>26</v>
+        <v>400</v>
+      </c>
+      <c r="C317" s="2">
+        <v>1</v>
+      </c>
+      <c r="D317" s="2">
+        <v>95319</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="2" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="D318" s="2">
+        <v>87917</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="2" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>530</v>
+        <v>634</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>396</v>
+        <v>635</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>397</v>
+        <v>636</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="C320" s="2">
-        <v>1</v>
+        <v>351</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E320" s="6" t="s">
-        <v>26</v>
+        <v>128</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C321" s="2">
-        <v>1000</v>
+        <v>351</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>361</v>
+        <v>13</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>362</v>
+        <v>9</v>
       </c>
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B322" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="C322" s="2">
-        <v>6</v>
+        <v>351</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E322" s="6" t="s">
-        <v>26</v>
+        <v>496</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>20</v>
+        <v>348</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C323" s="2">
+        <v>1</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E323" s="6" t="s">
-        <v>535</v>
+        <v>263</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="2" t="s">
-        <v>65</v>
+        <v>348</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>410</v>
+        <v>455</v>
+      </c>
+      <c r="C324" s="2">
+        <v>1000</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E324" s="6" t="s">
-        <v>7</v>
+        <v>456</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="2" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D325" s="2">
-        <v>981818</v>
+        <v>254</v>
+      </c>
+      <c r="C325" s="2">
+        <v>6</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>637</v>
+        <v>129</v>
       </c>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="2" t="s">
-        <v>616</v>
+        <v>351</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E326" s="6" t="s">
-        <v>26</v>
+        <v>450</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="2" t="s">
-        <v>616</v>
+        <v>73</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>313</v>
+        <v>508</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>203</v>
+        <v>509</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>314</v>
+        <v>510</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>538</v>
+        <v>134</v>
       </c>
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="2" t="s">
-        <v>616</v>
+        <v>346</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>105</v>
+        <v>355</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>213</v>
+        <v>329</v>
+      </c>
+      <c r="D328" s="2">
+        <v>981820</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>26</v>
+        <v>323</v>
       </c>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="1:6" ht="15" customHeight="1">
+    <row r="329" spans="1:6">
       <c r="A329" s="2" t="s">
-        <v>616</v>
+        <v>346</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>218</v>
+        <v>354</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>26</v>
+        <v>328</v>
+      </c>
+      <c r="D329" s="2">
+        <v>981818</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="1:6" ht="15" customHeight="1">
+    <row r="330" spans="1:6">
       <c r="A330" s="2" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C330" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D330" s="2">
-        <v>989220</v>
+        <v>275</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="15" customHeight="1">
+        <v>129</v>
+      </c>
+      <c r="F330" s="2"/>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331" s="2" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C331" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D331" s="2">
-        <v>989221</v>
+        <v>401</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="15" customHeight="1">
+        <v>265</v>
+      </c>
+      <c r="F331" s="2"/>
+    </row>
+    <row r="332" spans="1:6">
       <c r="A332" s="2" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C332" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D332" s="2">
-        <v>984000</v>
+        <v>115</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" ht="15" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="F332" s="2"/>
+    </row>
+    <row r="333" spans="1:6">
       <c r="A333" s="2" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>640</v>
+        <v>286</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="D333" s="2">
-        <v>984030</v>
+        <v>116</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" ht="15" customHeight="1">
-      <c r="A334" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D334" s="2">
-        <v>981780</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" ht="15" customHeight="1">
-      <c r="A335" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D335" s="2">
-        <v>981897</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" ht="15" customHeight="1">
-      <c r="A336" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D336" s="2">
-        <v>981892</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>637</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F333" s="2"/>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E113">
@@ -8628,20 +8584,20 @@
     <sortCondition ref="E4"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D301" r:id="rId1" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3413D"/>
-    <hyperlink ref="D227" r:id="rId2" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3470H"/>
-    <hyperlink ref="D322" r:id="rId3" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W31470"/>
-    <hyperlink ref="D320" r:id="rId4" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W24674"/>
-    <hyperlink ref="D151" r:id="rId5" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3466X"/>
-    <hyperlink ref="D225" r:id="rId6" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3378C"/>
-    <hyperlink ref="D226" r:id="rId7" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W34897"/>
+    <hyperlink ref="D304" r:id="rId1" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3413D"/>
+    <hyperlink ref="D230" r:id="rId2" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3470H"/>
+    <hyperlink ref="D325" r:id="rId3" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W31470"/>
+    <hyperlink ref="D323" r:id="rId4" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W24674"/>
+    <hyperlink ref="D152" r:id="rId5" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3466X"/>
+    <hyperlink ref="D228" r:id="rId6" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3378C"/>
+    <hyperlink ref="D229" r:id="rId7" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W34897"/>
     <hyperlink ref="D98" r:id="rId8" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3468W"/>
-    <hyperlink ref="D155" r:id="rId9" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W34836"/>
-    <hyperlink ref="D326" r:id="rId10" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W35246"/>
-    <hyperlink ref="D198" r:id="rId11" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3493R"/>
-    <hyperlink ref="D329" r:id="rId12" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W241K8"/>
-    <hyperlink ref="D328" r:id="rId13" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3493L"/>
-    <hyperlink ref="D160" r:id="rId14" display="javascript:void(0);"/>
+    <hyperlink ref="D156" r:id="rId9" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W34836"/>
+    <hyperlink ref="D330" r:id="rId10" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W35246"/>
+    <hyperlink ref="D200" r:id="rId11" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3493R"/>
+    <hyperlink ref="D333" r:id="rId12" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W241K8"/>
+    <hyperlink ref="D332" r:id="rId13" display="https://extranet.fisher.co.uk/insight2_fr/getProduct.do?productCode=W3493L"/>
+    <hyperlink ref="D161" r:id="rId14" display="javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
